--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E288F3-23FE-43F1-9DCC-C5C08D62DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD6B2F-B838-4A7F-9FFF-5BA6D3D30611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
+    <workbookView xWindow="795" yWindow="465" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>ARVN</t>
   </si>
@@ -191,15 +191,6 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>CFFO</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>FCF</t>
-  </si>
-  <si>
     <t>ROIC</t>
   </si>
   <si>
@@ -387,6 +378,72 @@
   </si>
   <si>
     <t>Initate first-in-human Phase I in patients w/ solid tumors harboring KRAS G12D mutations 2H 2025</t>
+  </si>
+  <si>
+    <t>Ligase IP</t>
+  </si>
+  <si>
+    <t>Linker IP</t>
+  </si>
+  <si>
+    <t>Target IP</t>
+  </si>
+  <si>
+    <t>Assay IP</t>
+  </si>
+  <si>
+    <t>ADME/PK assays or data analysis directed at PROTAC characterization or predictions</t>
+  </si>
+  <si>
+    <t>Linkers as independent components of protein degrader compositions</t>
+  </si>
+  <si>
+    <t>Target Binding Moieties as independent components of protein degrader compositions</t>
+  </si>
+  <si>
+    <t>PROTAC</t>
+  </si>
+  <si>
+    <t>proteolysis - protein degrader</t>
+  </si>
+  <si>
+    <t>PROTAC works with two distinct binding domains linked by a chemical linker</t>
+  </si>
+  <si>
+    <t>Domain 1</t>
+  </si>
+  <si>
+    <t>Domain 2</t>
+  </si>
+  <si>
+    <t>target POI</t>
+  </si>
+  <si>
+    <t>binds to E3 ubiquitin ligase</t>
+  </si>
+  <si>
+    <t>PROTAC Molecule binds the POI &amp; E3 Ligase together forming a ternary complex</t>
+  </si>
+  <si>
+    <t>E3 Ligase adds ubiquitin tags to the POI</t>
+  </si>
+  <si>
+    <t>How PROTAC works</t>
+  </si>
+  <si>
+    <t>The ubiquitiated POI is then recognized by the proteasome which degrades it into smaller peptides</t>
+  </si>
+  <si>
+    <t>After ubiquitination the PROTAC molecule is released and can be reused to target and degrade more copies of the POI, making it a catalytic process</t>
+  </si>
+  <si>
+    <t>Ubiquitin Ligase Binding Moieties as components of protein degrader compositions</t>
+  </si>
+  <si>
+    <t>target chimera - chimera meaning having two parts</t>
+  </si>
+  <si>
+    <t>NVS milestones &amp; royalties</t>
   </si>
 </sst>
 </file>
@@ -637,16 +694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -661,8 +718,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="57150"/>
-          <a:ext cx="28575" cy="8572500"/>
+          <a:off x="10591800" y="0"/>
+          <a:ext cx="28575" cy="8934450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1035,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BB678-3E4D-4596-B817-7F0BBEA796CF}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,25 +1113,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="G3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -1085,17 +1142,17 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H4" s="15"/>
       <c r="J4" t="s">
@@ -1113,14 +1170,14 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" s="15"/>
       <c r="J5" t="s">
@@ -1133,17 +1190,17 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H6" s="15"/>
       <c r="J6" t="s">
@@ -1159,22 +1216,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" s="15"/>
       <c r="J7" t="s">
@@ -1190,22 +1247,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H8" s="13"/>
       <c r="J8" t="s">
@@ -1218,44 +1275,127 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1263,19 +1403,20 @@
     <hyperlink ref="C7" location="Vepdegestrant!A1" display="vepdegestrant" xr:uid="{3B912642-2AA9-48E1-9FD8-C48A2E11EFC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3490E-060A-4BBA-A7F8-7C82CDA69E04}">
-  <dimension ref="A1:DI37"/>
+  <dimension ref="A1:DI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1426,7 @@
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1470,7 @@
         <v>2025</v>
       </c>
       <c r="P1" s="9">
-        <f t="shared" ref="P1:X1" si="0">O1+1</f>
+        <f t="shared" ref="P1:T1" si="0">O1+1</f>
         <v>2026</v>
       </c>
       <c r="Q1" s="9">
@@ -1349,120 +1490,137 @@
         <v>2030</v>
       </c>
       <c r="U1" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U1" si="1">T1+1</f>
         <v>2031</v>
       </c>
       <c r="V1" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V1" si="2">U1+1</f>
         <v>2032</v>
       </c>
       <c r="W1" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W1" si="3">V1+1</f>
         <v>2033</v>
       </c>
       <c r="X1" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X1" si="4">W1+1</f>
         <v>2034</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="9">
+        <f t="shared" ref="Y1" si="5">X1+1</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="3">
-        <f>200000*0.4</f>
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="O2" s="3">
-        <f>N2*1.09</f>
-        <v>87200</v>
+        <f>N2*1.02</f>
+        <v>20400</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:X2" si="1">O2*1.09</f>
-        <v>95048</v>
+        <f>O2*1.04</f>
+        <v>21216</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" si="1"/>
-        <v>103602.32</v>
+        <f t="shared" ref="Q2:Y2" si="6">P2*1.04</f>
+        <v>22064.639999999999</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="1"/>
-        <v>112926.52880000001</v>
+        <f t="shared" si="6"/>
+        <v>22947.225600000002</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" si="1"/>
-        <v>123089.91639200003</v>
+        <f t="shared" si="6"/>
+        <v>23865.114624000002</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" si="1"/>
-        <v>134168.00886728003</v>
+        <f t="shared" si="6"/>
+        <v>24819.719208960003</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" si="1"/>
-        <v>146243.12966533526</v>
+        <f t="shared" si="6"/>
+        <v>25812.507977318404</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" si="1"/>
-        <v>159405.01133521544</v>
+        <f t="shared" si="6"/>
+        <v>26845.008296411143</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" si="1"/>
-        <v>173751.46235538484</v>
+        <f t="shared" si="6"/>
+        <v>27918.80862826759</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" si="1"/>
-        <v>189389.0939673695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>29035.560973398296</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="6"/>
+        <v>30196.98341233423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O3" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="R3" s="3">
-        <f>Q3*1.1</f>
-        <v>4400</v>
+        <f>Q3*1.01</f>
+        <v>10100</v>
       </c>
       <c r="S3" s="3">
-        <v>4000</v>
+        <f t="shared" ref="S3:Y3" si="7">R3*1.01</f>
+        <v>10201</v>
       </c>
       <c r="T3" s="3">
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>10303.01</v>
       </c>
       <c r="U3" s="3">
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>10406.0401</v>
       </c>
       <c r="V3" s="3">
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>10510.100501000001</v>
       </c>
       <c r="W3" s="3">
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>10615.20150601</v>
       </c>
       <c r="X3" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>10721.353521070101</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="7"/>
+        <v>10828.567056280803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L4" s="3">
         <v>334</v>
@@ -1474,17 +1632,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1492,41 +1650,41 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:J7" si="2">C12</f>
+        <f t="shared" ref="C7:J7" si="8">C12</f>
         <v>25.3</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>188.8</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25.25</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25.502500000000001</v>
       </c>
       <c r="M7" s="9"/>
@@ -1536,7 +1694,7 @@
       </c>
       <c r="O7" s="3">
         <f>O12</f>
-        <v>264.55250000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
         <v>0</v>
@@ -1548,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -1565,11 +1723,14 @@
       <c r="X7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -1601,8 +1762,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -1637,11 +1801,14 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O10" s="3">
         <f>SUM(G10:J10)</f>
@@ -1674,8 +1841,11 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -1688,39 +1858,43 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" ref="Q11:X11" si="3">Q3*Q2/1000000</f>
-        <v>414.40928000000002</v>
+        <f>Q3*Q2/1000000/2</f>
+        <v>110.3232</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="3"/>
-        <v>496.87672672000008</v>
+        <f t="shared" ref="R11:T11" si="9">R3*R2/1000000/2</f>
+        <v>115.88348928000001</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="3"/>
-        <v>492.35966556800014</v>
+        <f t="shared" si="9"/>
+        <v>121.724017139712</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="3"/>
-        <v>536.67203546912015</v>
+        <f t="shared" si="9"/>
+        <v>127.8589076035535</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="3"/>
-        <v>584.97251866134104</v>
+        <f t="shared" ref="U11:Y11" si="10">U3*U2/1000000/2</f>
+        <v>134.30299654677259</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="3"/>
-        <v>637.62004534086179</v>
+        <f t="shared" si="10"/>
+        <v>141.07186757272999</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="3"/>
-        <v>695.00584942153932</v>
+        <f t="shared" si="10"/>
+        <v>148.18188969839554</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="3"/>
-        <v>757.55637586947796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>155.65025693919472</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="10"/>
+        <v>163.49502988893013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
@@ -1735,11 +1909,11 @@
         <v>25</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" ref="I12:J12" si="4">H12*1.01</f>
+        <f t="shared" ref="I12:J12" si="11">H12*1.01</f>
         <v>25.25</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>25.502500000000001</v>
       </c>
       <c r="L12" s="6">
@@ -1752,47 +1926,50 @@
         <v>263.39999999999998</v>
       </c>
       <c r="O12" s="6">
-        <f>SUM(G12:J12)</f>
-        <v>264.55250000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" ref="P12:X12" si="5">SUM(P7:P11)</f>
+        <f t="shared" ref="P12:T12" si="12">SUM(P7:P11)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="5"/>
-        <v>414.40928000000002</v>
+        <f t="shared" si="12"/>
+        <v>110.3232</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="5"/>
-        <v>496.87672672000008</v>
+        <f t="shared" si="12"/>
+        <v>115.88348928000001</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="5"/>
-        <v>492.35966556800014</v>
+        <f t="shared" si="12"/>
+        <v>271.72401713971203</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" si="5"/>
-        <v>536.67203546912015</v>
+        <f t="shared" si="12"/>
+        <v>127.8589076035535</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="5"/>
-        <v>584.97251866134104</v>
+        <f t="shared" ref="U12:Y12" si="13">SUM(U7:U11)</f>
+        <v>134.30299654677259</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" si="5"/>
-        <v>637.62004534086179</v>
+        <f t="shared" si="13"/>
+        <v>141.07186757272999</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" si="5"/>
-        <v>695.00584942153932</v>
+        <f t="shared" si="13"/>
+        <v>148.18188969839554</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" si="5"/>
-        <v>757.55637586947796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>155.65025693919472</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="13"/>
+        <v>163.49502988893013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1807,11 +1984,11 @@
         <v>90.8</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:J13" si="6">H13</f>
+        <f t="shared" ref="I13:J13" si="14">H13</f>
         <v>90.8</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>90.8</v>
       </c>
       <c r="L13" s="3">
@@ -1828,43 +2005,11 @@
         <v>363.2</v>
       </c>
       <c r="P13" s="3">
-        <f>O13*1.02</f>
-        <v>370.464</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" ref="Q13:X13" si="7">P13*1.02</f>
-        <v>377.87328000000002</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="7"/>
-        <v>385.43074560000002</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="7"/>
-        <v>393.13936051200005</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" si="7"/>
-        <v>401.00214772224007</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="7"/>
-        <v>409.02219067668489</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="7"/>
-        <v>417.2026344902186</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="7"/>
-        <v>425.54668718002296</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" si="7"/>
-        <v>434.0576209236234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+        <f>O13</f>
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1879,11 +2024,11 @@
         <v>26.6</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" ref="I14:J14" si="8">H14</f>
+        <f t="shared" ref="I14:J14" si="15">H14</f>
         <v>26.6</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.6</v>
       </c>
       <c r="L14" s="3">
@@ -1900,43 +2045,47 @@
         <v>106.4</v>
       </c>
       <c r="P14" s="3">
-        <f>O14*1.02</f>
-        <v>108.52800000000001</v>
+        <f>O14</f>
+        <v>106.4</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" ref="Q14:X14" si="9">P14*1.02</f>
-        <v>110.69856000000001</v>
+        <f t="shared" ref="Q14:T14" si="16">P14</f>
+        <v>106.4</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="9"/>
-        <v>112.91253120000002</v>
+        <f t="shared" si="16"/>
+        <v>106.4</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="9"/>
-        <v>115.17078182400002</v>
+        <f t="shared" si="16"/>
+        <v>106.4</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="9"/>
-        <v>117.47419746048001</v>
+        <f t="shared" si="16"/>
+        <v>106.4</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="9"/>
-        <v>119.82368140968961</v>
+        <f t="shared" ref="U14" si="17">T14</f>
+        <v>106.4</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="9"/>
-        <v>122.2201550378834</v>
+        <f t="shared" ref="V14" si="18">U14</f>
+        <v>106.4</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="9"/>
-        <v>124.66455813864107</v>
+        <f t="shared" ref="W14" si="19">V14</f>
+        <v>106.4</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="9"/>
-        <v>127.15784930141389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" ref="X14" si="20">W14</f>
+        <v>106.4</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" ref="Y14" si="21">X14</f>
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1949,71 +2098,75 @@
         <v>117.4</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ref="H15:N15" si="10">SUM(H13:H14)</f>
+        <f t="shared" ref="H15:N15" si="22">SUM(H13:H14)</f>
         <v>117.4</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>117.4</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>117.4</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>394.6</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>480</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>513.6</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" ref="O15" si="11">SUM(O13:O14)</f>
+        <f t="shared" ref="O15" si="23">SUM(O13:O14)</f>
         <v>469.6</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" ref="P15" si="12">SUM(P13:P14)</f>
-        <v>478.99200000000002</v>
+        <f t="shared" ref="P15" si="24">SUM(P13:P14)</f>
+        <v>469.6</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" ref="Q15" si="13">SUM(Q13:Q14)</f>
-        <v>488.57184000000007</v>
+        <f t="shared" ref="Q15" si="25">SUM(Q13:Q14)</f>
+        <v>106.4</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" ref="R15" si="14">SUM(R13:R14)</f>
-        <v>498.34327680000001</v>
+        <f t="shared" ref="R15" si="26">SUM(R13:R14)</f>
+        <v>106.4</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" ref="S15" si="15">SUM(S13:S14)</f>
-        <v>508.31014233600007</v>
+        <f t="shared" ref="S15" si="27">SUM(S13:S14)</f>
+        <v>106.4</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" ref="T15" si="16">SUM(T13:T14)</f>
-        <v>518.47634518272002</v>
+        <f t="shared" ref="T15:Y15" si="28">SUM(T13:T14)</f>
+        <v>106.4</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" ref="U15" si="17">SUM(U13:U14)</f>
-        <v>528.84587208637447</v>
+        <f t="shared" si="28"/>
+        <v>106.4</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" ref="V15" si="18">SUM(V13:V14)</f>
-        <v>539.42278952810204</v>
+        <f t="shared" si="28"/>
+        <v>106.4</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" ref="W15" si="19">SUM(W13:W14)</f>
-        <v>550.21124531866406</v>
+        <f t="shared" si="28"/>
+        <v>106.4</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" ref="X15" si="20">SUM(X13:X14)</f>
-        <v>561.21547022503728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>106.4</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="28"/>
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2026,68 +2179,72 @@
         <v>71.400000000000006</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H16:N16" si="21">H12-H15</f>
+        <f t="shared" ref="H16:N16" si="29">H12-H15</f>
         <v>-92.4</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-92.15</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-91.897500000000008</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-263.20000000000005</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-401.5</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-250.20000000000005</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" ref="O16" si="22">O12-O15</f>
-        <v>-205.04750000000001</v>
+        <f t="shared" ref="O16" si="30">O12-O15</f>
+        <v>-469.6</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" ref="P16" si="23">P12-P15</f>
-        <v>-478.99200000000002</v>
+        <f t="shared" ref="P16" si="31">P12-P15</f>
+        <v>-469.6</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16" si="24">Q12-Q15</f>
-        <v>-74.162560000000042</v>
+        <f t="shared" ref="Q16" si="32">Q12-Q15</f>
+        <v>3.9231999999999942</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" ref="R16" si="25">R12-R15</f>
-        <v>-1.4665500799999336</v>
+        <f t="shared" ref="R16" si="33">R12-R15</f>
+        <v>9.4834892800000006</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" ref="S16" si="26">S12-S15</f>
-        <v>-15.95047676799993</v>
+        <f t="shared" ref="S16" si="34">S12-S15</f>
+        <v>165.32401713971203</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" ref="T16" si="27">T12-T15</f>
-        <v>18.195690286400122</v>
+        <f t="shared" ref="T16:Y16" si="35">T12-T15</f>
+        <v>21.458907603553499</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" ref="U16" si="28">U12-U15</f>
-        <v>56.126646574966571</v>
+        <f t="shared" si="35"/>
+        <v>27.902996546772584</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ref="V16" si="29">V12-V15</f>
-        <v>98.197255812759749</v>
+        <f t="shared" si="35"/>
+        <v>34.67186757272998</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" ref="W16" si="30">W12-W15</f>
-        <v>144.79460410287527</v>
+        <f t="shared" si="35"/>
+        <v>41.781889698395531</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" ref="X16" si="31">X12-X15</f>
-        <v>196.34090564444068</v>
+        <f t="shared" si="35"/>
+        <v>49.250256939194713</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="35"/>
+        <v>57.095029888930128</v>
       </c>
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.2">
@@ -2101,16 +2258,16 @@
         <v>11.7</v>
       </c>
       <c r="H17" s="3">
-        <f>G29*$AA$25/4</f>
-        <v>12.4095</v>
+        <f>G29*$AB$23/4</f>
+        <v>4.1364999999999998</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:J17" si="32">H29*$AA$25/4</f>
-        <v>11.209642499999999</v>
+        <f>H29*$AB$23/4</f>
+        <v>3.6951824999999996</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="32"/>
-        <v>9.9955371374999995</v>
+        <f>I29*$AB$23/4</f>
+        <v>3.2529084124999996</v>
       </c>
       <c r="L17" s="3">
         <v>12</v>
@@ -2123,43 +2280,47 @@
       </c>
       <c r="O17" s="3">
         <f>SUM(G17:J17)</f>
-        <v>45.314679637499999</v>
+        <v>22.784590912499997</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" ref="P17:X17" si="33">O29*$AA$25</f>
-        <v>35.068030778249998</v>
+        <f t="shared" ref="P17:Y17" si="36">O29*$AB$23</f>
+        <v>11.238741818249999</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="33"/>
-        <v>9.7643645326102426</v>
+        <f t="shared" si="36"/>
+        <v>2.0715166546149977</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="33"/>
-        <v>6.0936673909690251</v>
+        <f t="shared" si="36"/>
+        <v>2.1914109877072976</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="33"/>
-        <v>6.3435317257613555</v>
+        <f t="shared" si="36"/>
+        <v>2.4249089930614436</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="33"/>
-        <v>5.8247566934804729</v>
+        <f t="shared" si="36"/>
+        <v>5.7798875157169132</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="33"/>
-        <v>7.1218608303940245</v>
+        <f t="shared" si="36"/>
+        <v>6.3246634181023218</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="33"/>
-        <v>10.537280230283496</v>
+        <f t="shared" si="36"/>
+        <v>7.0092166173998205</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="33"/>
-        <v>16.40894517660783</v>
+        <f t="shared" si="36"/>
+        <v>7.8428383012024163</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="33"/>
-        <v>25.113936837699921</v>
+        <f t="shared" si="36"/>
+        <v>8.8353328611943756</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="36"/>
+        <v>9.9970446572021565</v>
       </c>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.2">
@@ -2175,68 +2336,72 @@
         <v>83.100000000000009</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" ref="H18:N18" si="34">H16+H17</f>
-        <v>-79.990500000000011</v>
+        <f t="shared" ref="H18:N18" si="37">H16+H17</f>
+        <v>-88.263500000000008</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="34"/>
-        <v>-80.940357500000005</v>
+        <f t="shared" si="37"/>
+        <v>-88.454817500000004</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="34"/>
-        <v>-81.901962862500014</v>
+        <f t="shared" si="37"/>
+        <v>-88.644591587500003</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-251.20000000000005</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-362.7</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-195.40000000000003</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" ref="O18" si="35">O16+O17</f>
-        <v>-159.73282036250001</v>
+        <f t="shared" ref="O18" si="38">O16+O17</f>
+        <v>-446.81540908750003</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" ref="P18" si="36">P16+P17</f>
-        <v>-443.92396922175004</v>
+        <f t="shared" ref="P18" si="39">P16+P17</f>
+        <v>-458.36125818175003</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" ref="Q18" si="37">Q16+Q17</f>
-        <v>-64.398195467389797</v>
+        <f t="shared" ref="Q18" si="40">Q16+Q17</f>
+        <v>5.9947166546149919</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" ref="R18" si="38">R16+R17</f>
-        <v>4.6271173109690915</v>
+        <f t="shared" ref="R18" si="41">R16+R17</f>
+        <v>11.674900267707297</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" ref="S18" si="39">S16+S17</f>
-        <v>-9.6069450422385749</v>
+        <f t="shared" ref="S18" si="42">S16+S17</f>
+        <v>167.74892613277348</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" ref="T18" si="40">T16+T17</f>
-        <v>24.020446979880596</v>
+        <f t="shared" ref="T18:Y18" si="43">T16+T17</f>
+        <v>27.238795119270414</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" ref="U18" si="41">U16+U17</f>
-        <v>63.248507405360598</v>
+        <f t="shared" si="43"/>
+        <v>34.227659964874903</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" ref="V18" si="42">V16+V17</f>
-        <v>108.73453604304325</v>
+        <f t="shared" si="43"/>
+        <v>41.681084190129802</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" ref="W18" si="43">W16+W17</f>
-        <v>161.2035492794831</v>
+        <f t="shared" si="43"/>
+        <v>49.624727999597951</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ref="X18" si="44">X16+X17</f>
-        <v>221.45484248214061</v>
+        <f t="shared" si="43"/>
+        <v>58.085589800389087</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="43"/>
+        <v>67.092074546132281</v>
       </c>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.2">
@@ -2254,11 +2419,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19:J19" si="45">I18*I25</f>
+        <f t="shared" ref="I19:J19" si="44">I18*I25</f>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L19" s="3">
@@ -2276,39 +2441,43 @@
       </c>
       <c r="P19" s="3">
         <f>P18*P25</f>
-        <v>-22.196198461087505</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19:S19" si="46">Q18*Q25</f>
-        <v>-3.2199097733694901</v>
+        <f t="shared" ref="Q19:S19" si="45">Q18*Q25</f>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" ref="T19:Y19" si="46">T18*T25</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="46"/>
-        <v>0.46271173109690916</v>
-      </c>
-      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
         <f t="shared" si="46"/>
-        <v>-0.96069450422385749</v>
-      </c>
-      <c r="T19" s="3">
-        <f t="shared" ref="T19" si="47">T18*T25</f>
-        <v>2.4020446979880599</v>
-      </c>
-      <c r="U19" s="3">
-        <f t="shared" ref="U19" si="48">U18*U25</f>
-        <v>6.3248507405360606</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" ref="V19" si="49">V18*V25</f>
-        <v>10.873453604304325</v>
+        <v>0</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ref="W19" si="50">W18*W25</f>
-        <v>16.120354927948309</v>
+        <f t="shared" si="46"/>
+        <v>0</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" ref="X19" si="51">X18*X25</f>
-        <v>22.145484248214061</v>
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:113" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2325,424 +2494,424 @@
         <v>82.9</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:N20" si="52">H18-H19</f>
-        <v>-79.990500000000011</v>
+        <f t="shared" ref="H20:N20" si="47">H18-H19</f>
+        <v>-88.263500000000008</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="52"/>
-        <v>-80.940357500000005</v>
+        <f t="shared" si="47"/>
+        <v>-88.454817500000004</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="52"/>
-        <v>-81.901962862500014</v>
+        <f t="shared" si="47"/>
+        <v>-88.644591587500003</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>-272.10000000000002</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>-363.59999999999997</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>-196.00000000000003</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="53">O18-O19</f>
-        <v>-159.9328203625</v>
+        <f t="shared" ref="O20" si="48">O18-O19</f>
+        <v>-447.01540908750002</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20" si="54">P18-P19</f>
-        <v>-421.72777076066257</v>
+        <f t="shared" ref="P20" si="49">P18-P19</f>
+        <v>-458.36125818175003</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ref="Q20" si="55">Q18-Q19</f>
-        <v>-61.17828569402031</v>
+        <f t="shared" ref="Q20" si="50">Q18-Q19</f>
+        <v>5.9947166546149919</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20" si="56">R18-R19</f>
-        <v>4.1644055798721826</v>
+        <f t="shared" ref="R20" si="51">R18-R19</f>
+        <v>11.674900267707297</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ref="S20" si="57">S18-S19</f>
-        <v>-8.6462505380147174</v>
+        <f t="shared" ref="S20" si="52">S18-S19</f>
+        <v>167.74892613277348</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" ref="T20" si="58">T18-T19</f>
-        <v>21.618402281892536</v>
+        <f t="shared" ref="T20:Y20" si="53">T18-T19</f>
+        <v>27.238795119270414</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" ref="U20" si="59">U18-U19</f>
-        <v>56.923656664824534</v>
+        <f t="shared" si="53"/>
+        <v>34.227659964874903</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" ref="V20" si="60">V18-V19</f>
-        <v>97.861082438738919</v>
+        <f t="shared" si="53"/>
+        <v>41.681084190129802</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" ref="W20" si="61">W18-W19</f>
-        <v>145.08319435153479</v>
+        <f t="shared" si="53"/>
+        <v>49.624727999597951</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="X20" si="62">X18-X19</f>
-        <v>199.30935823392656</v>
+        <f t="shared" si="53"/>
+        <v>58.085589800389087</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" ref="Y20:BD20" si="63">X20*(1+$AA$26)</f>
-        <v>197.31626465158729</v>
+        <f t="shared" si="53"/>
+        <v>67.092074546132281</v>
       </c>
       <c r="Z20" s="6">
-        <f t="shared" si="63"/>
-        <v>195.34310200507142</v>
+        <f t="shared" ref="Z20:BE20" si="54">Y20*(1+$AB$24)</f>
+        <v>66.421153800670965</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="63"/>
-        <v>193.3896709850207</v>
+        <f t="shared" si="54"/>
+        <v>65.756942262664253</v>
       </c>
       <c r="AB20" s="6">
-        <f t="shared" si="63"/>
-        <v>191.45577427517048</v>
+        <f t="shared" si="54"/>
+        <v>65.099372840037617</v>
       </c>
       <c r="AC20" s="6">
-        <f t="shared" si="63"/>
-        <v>189.54121653241879</v>
+        <f t="shared" si="54"/>
+        <v>64.448379111637237</v>
       </c>
       <c r="AD20" s="6">
-        <f t="shared" si="63"/>
-        <v>187.6458043670946</v>
+        <f t="shared" si="54"/>
+        <v>63.803895320520866</v>
       </c>
       <c r="AE20" s="6">
-        <f t="shared" si="63"/>
-        <v>185.76934632342366</v>
+        <f t="shared" si="54"/>
+        <v>63.165856367315655</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="63"/>
-        <v>183.91165286018943</v>
+        <f t="shared" si="54"/>
+        <v>62.534197803642499</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" si="63"/>
-        <v>182.07253633158754</v>
+        <f t="shared" si="54"/>
+        <v>61.908855825606075</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="63"/>
-        <v>180.25181096827166</v>
+        <f t="shared" si="54"/>
+        <v>61.289767267350015</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="63"/>
-        <v>178.44929285858893</v>
+        <f t="shared" si="54"/>
+        <v>60.676869594676518</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" si="63"/>
-        <v>176.66479993000306</v>
+        <f t="shared" si="54"/>
+        <v>60.070100898729756</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="63"/>
-        <v>174.89815193070302</v>
+        <f t="shared" si="54"/>
+        <v>59.469399889742455</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="63"/>
-        <v>173.149170411396</v>
+        <f t="shared" si="54"/>
+        <v>58.874705890845028</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" si="63"/>
-        <v>171.41767870728205</v>
+        <f t="shared" si="54"/>
+        <v>58.285958831936576</v>
       </c>
       <c r="AN20" s="6">
-        <f t="shared" si="63"/>
-        <v>169.70350192020922</v>
+        <f t="shared" si="54"/>
+        <v>57.70309924361721</v>
       </c>
       <c r="AO20" s="6">
-        <f t="shared" si="63"/>
-        <v>168.00646690100712</v>
+        <f t="shared" si="54"/>
+        <v>57.126068251181039</v>
       </c>
       <c r="AP20" s="6">
-        <f t="shared" si="63"/>
-        <v>166.32640223199704</v>
+        <f t="shared" si="54"/>
+        <v>56.554807568669226</v>
       </c>
       <c r="AQ20" s="6">
-        <f t="shared" si="63"/>
-        <v>164.66313820967707</v>
+        <f t="shared" si="54"/>
+        <v>55.989259492982534</v>
       </c>
       <c r="AR20" s="6">
-        <f t="shared" si="63"/>
-        <v>163.01650682758029</v>
+        <f t="shared" si="54"/>
+        <v>55.429366898052706</v>
       </c>
       <c r="AS20" s="6">
-        <f t="shared" si="63"/>
-        <v>161.38634175930449</v>
+        <f t="shared" si="54"/>
+        <v>54.875073229072179</v>
       </c>
       <c r="AT20" s="6">
-        <f t="shared" si="63"/>
-        <v>159.77247834171143</v>
+        <f t="shared" si="54"/>
+        <v>54.326322496781458</v>
       </c>
       <c r="AU20" s="6">
-        <f t="shared" si="63"/>
-        <v>158.17475355829433</v>
+        <f t="shared" si="54"/>
+        <v>53.783059271813642</v>
       </c>
       <c r="AV20" s="6">
-        <f t="shared" si="63"/>
-        <v>156.59300602271139</v>
+        <f t="shared" si="54"/>
+        <v>53.245228679095504</v>
       </c>
       <c r="AW20" s="6">
-        <f t="shared" si="63"/>
-        <v>155.02707596248428</v>
+        <f t="shared" si="54"/>
+        <v>52.712776392304548</v>
       </c>
       <c r="AX20" s="6">
-        <f t="shared" si="63"/>
-        <v>153.47680520285942</v>
+        <f t="shared" si="54"/>
+        <v>52.1856486283815</v>
       </c>
       <c r="AY20" s="6">
-        <f t="shared" si="63"/>
-        <v>151.94203715083083</v>
+        <f t="shared" si="54"/>
+        <v>51.663792142097684</v>
       </c>
       <c r="AZ20" s="6">
-        <f t="shared" si="63"/>
-        <v>150.42261677932251</v>
+        <f t="shared" si="54"/>
+        <v>51.147154220676704</v>
       </c>
       <c r="BA20" s="6">
-        <f t="shared" si="63"/>
-        <v>148.91839061152928</v>
+        <f t="shared" si="54"/>
+        <v>50.635682678469934</v>
       </c>
       <c r="BB20" s="6">
-        <f t="shared" si="63"/>
-        <v>147.42920670541397</v>
+        <f t="shared" si="54"/>
+        <v>50.12932585168523</v>
       </c>
       <c r="BC20" s="6">
-        <f t="shared" si="63"/>
-        <v>145.95491463835984</v>
+        <f t="shared" si="54"/>
+        <v>49.628032593168378</v>
       </c>
       <c r="BD20" s="6">
-        <f t="shared" si="63"/>
-        <v>144.49536549197623</v>
+        <f t="shared" si="54"/>
+        <v>49.131752267236692</v>
       </c>
       <c r="BE20" s="6">
-        <f t="shared" ref="BE20:CJ20" si="64">BD20*(1+$AA$26)</f>
-        <v>143.05041183705646</v>
+        <f t="shared" si="54"/>
+        <v>48.640434744564324</v>
       </c>
       <c r="BF20" s="6">
-        <f t="shared" si="64"/>
-        <v>141.61990771868588</v>
+        <f t="shared" ref="BF20:CK20" si="55">BE20*(1+$AB$24)</f>
+        <v>48.154030397118682</v>
       </c>
       <c r="BG20" s="6">
-        <f t="shared" si="64"/>
-        <v>140.20370864149902</v>
+        <f t="shared" si="55"/>
+        <v>47.672490093147495</v>
       </c>
       <c r="BH20" s="6">
-        <f t="shared" si="64"/>
-        <v>138.80167155508403</v>
+        <f t="shared" si="55"/>
+        <v>47.195765192216022</v>
       </c>
       <c r="BI20" s="6">
-        <f t="shared" si="64"/>
-        <v>137.41365483953319</v>
+        <f t="shared" si="55"/>
+        <v>46.723807540293862</v>
       </c>
       <c r="BJ20" s="6">
-        <f t="shared" si="64"/>
-        <v>136.03951829113785</v>
+        <f t="shared" si="55"/>
+        <v>46.256569464890923</v>
       </c>
       <c r="BK20" s="6">
-        <f t="shared" si="64"/>
-        <v>134.67912310822646</v>
+        <f t="shared" si="55"/>
+        <v>45.794003770242014</v>
       </c>
       <c r="BL20" s="6">
-        <f t="shared" si="64"/>
-        <v>133.33233187714418</v>
+        <f t="shared" si="55"/>
+        <v>45.336063732539593</v>
       </c>
       <c r="BM20" s="6">
-        <f t="shared" si="64"/>
-        <v>131.99900855837274</v>
+        <f t="shared" si="55"/>
+        <v>44.882703095214197</v>
       </c>
       <c r="BN20" s="6">
-        <f t="shared" si="64"/>
-        <v>130.67901847278901</v>
+        <f t="shared" si="55"/>
+        <v>44.433876064262051</v>
       </c>
       <c r="BO20" s="6">
-        <f t="shared" si="64"/>
-        <v>129.37222828806111</v>
+        <f t="shared" si="55"/>
+        <v>43.989537303619429</v>
       </c>
       <c r="BP20" s="6">
-        <f t="shared" si="64"/>
-        <v>128.07850600518049</v>
+        <f t="shared" si="55"/>
+        <v>43.549641930583235</v>
       </c>
       <c r="BQ20" s="6">
-        <f t="shared" si="64"/>
-        <v>126.79772094512867</v>
+        <f t="shared" si="55"/>
+        <v>43.1141455112774</v>
       </c>
       <c r="BR20" s="6">
-        <f t="shared" si="64"/>
-        <v>125.52974373567739</v>
+        <f t="shared" si="55"/>
+        <v>42.683004056164627</v>
       </c>
       <c r="BS20" s="6">
-        <f t="shared" si="64"/>
-        <v>124.27444629832061</v>
+        <f t="shared" si="55"/>
+        <v>42.25617401560298</v>
       </c>
       <c r="BT20" s="6">
-        <f t="shared" si="64"/>
-        <v>123.0317018353374</v>
+        <f t="shared" si="55"/>
+        <v>41.833612275446953</v>
       </c>
       <c r="BU20" s="6">
-        <f t="shared" si="64"/>
-        <v>121.80138481698403</v>
+        <f t="shared" si="55"/>
+        <v>41.415276152692485</v>
       </c>
       <c r="BV20" s="6">
-        <f t="shared" si="64"/>
-        <v>120.58337096881418</v>
+        <f t="shared" si="55"/>
+        <v>41.001123391165557</v>
       </c>
       <c r="BW20" s="6">
-        <f t="shared" si="64"/>
-        <v>119.37753725912604</v>
+        <f t="shared" si="55"/>
+        <v>40.591112157253903</v>
       </c>
       <c r="BX20" s="6">
-        <f t="shared" si="64"/>
-        <v>118.18376188653478</v>
+        <f t="shared" si="55"/>
+        <v>40.185201035681366</v>
       </c>
       <c r="BY20" s="6">
-        <f t="shared" si="64"/>
-        <v>117.00192426766944</v>
+        <f t="shared" si="55"/>
+        <v>39.783349025324554</v>
       </c>
       <c r="BZ20" s="6">
-        <f t="shared" si="64"/>
-        <v>115.83190502499274</v>
+        <f t="shared" si="55"/>
+        <v>39.385515535071306</v>
       </c>
       <c r="CA20" s="6">
-        <f t="shared" si="64"/>
-        <v>114.67358597474281</v>
+        <f t="shared" si="55"/>
+        <v>38.991660379720592</v>
       </c>
       <c r="CB20" s="6">
-        <f t="shared" si="64"/>
-        <v>113.52685011499538</v>
+        <f t="shared" si="55"/>
+        <v>38.601743775923389</v>
       </c>
       <c r="CC20" s="6">
-        <f t="shared" si="64"/>
-        <v>112.39158161384543</v>
+        <f t="shared" si="55"/>
+        <v>38.215726338164153</v>
       </c>
       <c r="CD20" s="6">
-        <f t="shared" si="64"/>
-        <v>111.26766579770698</v>
+        <f t="shared" si="55"/>
+        <v>37.83356907478251</v>
       </c>
       <c r="CE20" s="6">
-        <f t="shared" si="64"/>
-        <v>110.15498913972991</v>
+        <f t="shared" si="55"/>
+        <v>37.455233384034685</v>
       </c>
       <c r="CF20" s="6">
-        <f t="shared" si="64"/>
-        <v>109.05343924833261</v>
+        <f t="shared" si="55"/>
+        <v>37.080681050194336</v>
       </c>
       <c r="CG20" s="6">
-        <f t="shared" si="64"/>
-        <v>107.96290485584929</v>
+        <f t="shared" si="55"/>
+        <v>36.70987423969239</v>
       </c>
       <c r="CH20" s="6">
-        <f t="shared" si="64"/>
-        <v>106.8832758072908</v>
+        <f t="shared" si="55"/>
+        <v>36.342775497295463</v>
       </c>
       <c r="CI20" s="6">
-        <f t="shared" si="64"/>
-        <v>105.81444304921789</v>
+        <f t="shared" si="55"/>
+        <v>35.97934774232251</v>
       </c>
       <c r="CJ20" s="6">
-        <f t="shared" si="64"/>
-        <v>104.75629861872571</v>
+        <f t="shared" si="55"/>
+        <v>35.619554264899286</v>
       </c>
       <c r="CK20" s="6">
-        <f t="shared" ref="CK20:DI20" si="65">CJ20*(1+$AA$26)</f>
-        <v>103.70873563253845</v>
+        <f t="shared" si="55"/>
+        <v>35.263358722250295</v>
       </c>
       <c r="CL20" s="6">
-        <f t="shared" si="65"/>
-        <v>102.67164827621306</v>
+        <f t="shared" ref="CL20:DI20" si="56">CK20*(1+$AB$24)</f>
+        <v>34.910725135027789</v>
       </c>
       <c r="CM20" s="6">
-        <f t="shared" si="65"/>
-        <v>101.64493179345094</v>
+        <f t="shared" si="56"/>
+        <v>34.561617883677513</v>
       </c>
       <c r="CN20" s="6">
-        <f t="shared" si="65"/>
-        <v>100.62848247551642</v>
+        <f t="shared" si="56"/>
+        <v>34.216001704840735</v>
       </c>
       <c r="CO20" s="6">
-        <f t="shared" si="65"/>
-        <v>99.622197650761251</v>
+        <f t="shared" si="56"/>
+        <v>33.873841687792329</v>
       </c>
       <c r="CP20" s="6">
-        <f t="shared" si="65"/>
-        <v>98.625975674253638</v>
+        <f t="shared" si="56"/>
+        <v>33.535103270914405</v>
       </c>
       <c r="CQ20" s="6">
-        <f t="shared" si="65"/>
-        <v>97.639715917511097</v>
+        <f t="shared" si="56"/>
+        <v>33.199752238205264</v>
       </c>
       <c r="CR20" s="6">
-        <f t="shared" si="65"/>
-        <v>96.66331875833599</v>
+        <f t="shared" si="56"/>
+        <v>32.86775471582321</v>
       </c>
       <c r="CS20" s="6">
-        <f t="shared" si="65"/>
-        <v>95.696685570752635</v>
+        <f t="shared" si="56"/>
+        <v>32.539077168664974</v>
       </c>
       <c r="CT20" s="6">
-        <f t="shared" si="65"/>
-        <v>94.739718715045115</v>
+        <f t="shared" si="56"/>
+        <v>32.213686396978325</v>
       </c>
       <c r="CU20" s="6">
-        <f t="shared" si="65"/>
-        <v>93.792321527894657</v>
+        <f t="shared" si="56"/>
+        <v>31.89154953300854</v>
       </c>
       <c r="CV20" s="6">
-        <f t="shared" si="65"/>
-        <v>92.854398312615714</v>
+        <f t="shared" si="56"/>
+        <v>31.572634037678455</v>
       </c>
       <c r="CW20" s="6">
-        <f t="shared" si="65"/>
-        <v>91.925854329489553</v>
+        <f t="shared" si="56"/>
+        <v>31.256907697301671</v>
       </c>
       <c r="CX20" s="6">
-        <f t="shared" si="65"/>
-        <v>91.006595786194652</v>
+        <f t="shared" si="56"/>
+        <v>30.944338620328654</v>
       </c>
       <c r="CY20" s="6">
-        <f t="shared" si="65"/>
-        <v>90.096529828332706</v>
+        <f t="shared" si="56"/>
+        <v>30.634895234125366</v>
       </c>
       <c r="CZ20" s="6">
-        <f t="shared" si="65"/>
-        <v>89.195564530049381</v>
+        <f t="shared" si="56"/>
+        <v>30.328546281784114</v>
       </c>
       <c r="DA20" s="6">
-        <f t="shared" si="65"/>
-        <v>88.303608884748883</v>
+        <f t="shared" si="56"/>
+        <v>30.025260818966274</v>
       </c>
       <c r="DB20" s="6">
-        <f t="shared" si="65"/>
-        <v>87.420572795901393</v>
+        <f t="shared" si="56"/>
+        <v>29.725008210776611</v>
       </c>
       <c r="DC20" s="6">
-        <f t="shared" si="65"/>
-        <v>86.546367067942384</v>
+        <f t="shared" si="56"/>
+        <v>29.427758128668845</v>
       </c>
       <c r="DD20" s="6">
-        <f t="shared" si="65"/>
-        <v>85.680903397262966</v>
+        <f t="shared" si="56"/>
+        <v>29.133480547382156</v>
       </c>
       <c r="DE20" s="6">
-        <f t="shared" si="65"/>
-        <v>84.824094363290342</v>
+        <f t="shared" si="56"/>
+        <v>28.842145741908336</v>
       </c>
       <c r="DF20" s="6">
-        <f t="shared" si="65"/>
-        <v>83.97585341965744</v>
+        <f t="shared" si="56"/>
+        <v>28.553724284489252</v>
       </c>
       <c r="DG20" s="6">
-        <f t="shared" si="65"/>
-        <v>83.136094885460864</v>
+        <f t="shared" si="56"/>
+        <v>28.26818704164436</v>
       </c>
       <c r="DH20" s="6">
-        <f t="shared" si="65"/>
-        <v>82.304733936606254</v>
+        <f t="shared" si="56"/>
+        <v>27.985505171227917</v>
       </c>
       <c r="DI20" s="6">
-        <f t="shared" si="65"/>
-        <v>81.481686597240184</v>
+        <f t="shared" si="56"/>
+        <v>27.705650119515639</v>
       </c>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.2">
@@ -2760,11 +2929,11 @@
         <v>74.154000000000011</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" ref="I21:J21" si="66">H21*1.02</f>
+        <f t="shared" ref="I21:J21" si="57">H21*1.02</f>
         <v>75.637080000000012</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="57"/>
         <v>77.14982160000001</v>
       </c>
       <c r="L21" s="3">
@@ -2785,36 +2954,40 @@
         <v>79.464316248000017</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" ref="Q21:X21" si="67">P21*1.03</f>
+        <f t="shared" ref="Q21:T21" si="58">P21*1.03</f>
         <v>81.848245735440017</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="58"/>
         <v>84.303693107503221</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="58"/>
         <v>86.832803900728322</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="58"/>
         <v>89.437788017750179</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="U21" si="59">T21*1.03</f>
         <v>92.120921658282683</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="V21" si="60">U21*1.03</f>
         <v>94.884549308031168</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="W21" si="61">V21*1.03</f>
         <v>97.731085787272107</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="X21" si="62">W21*1.03</f>
         <v>100.66301836089028</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21" si="63">X21*1.03</f>
+        <v>103.68290891171699</v>
       </c>
     </row>
     <row r="22" spans="1:113" x14ac:dyDescent="0.2">
@@ -2830,69 +3003,81 @@
         <v>1.1403026134800551</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ref="H22:N22" si="68">H20/H21</f>
-        <v>-1.078707824257626</v>
+        <f t="shared" ref="H22:N22" si="64">H20/H21</f>
+        <v>-1.1902729454918142</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="68"/>
-        <v>-1.0701147836484433</v>
+        <f t="shared" si="64"/>
+        <v>-1.1694636744305833</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="68"/>
-        <v>-1.0615962702692756</v>
+        <f t="shared" si="64"/>
+        <v>-1.1489928265433602</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>-5.1146616541353387</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>-6.551351351351351</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>-2.7260083449235051</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" ref="O22" si="69">O20/O21</f>
-        <v>-2.0730160750300421</v>
+        <f t="shared" ref="O22" si="65">O20/O21</f>
+        <v>-5.7941210986222158</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" ref="P22" si="70">P20/P21</f>
-        <v>-5.3071339523578516</v>
+        <f t="shared" ref="P22" si="66">P20/P21</f>
+        <v>-5.768139459619225</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" ref="Q22" si="71">Q20/Q21</f>
-        <v>-0.74745995035456592</v>
+        <f t="shared" ref="Q22" si="67">Q20/Q21</f>
+        <v>7.3241846550894371E-2</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" si="72">R20/R21</f>
-        <v>4.939766487527153E-2</v>
+        <f t="shared" ref="R22" si="68">R20/R21</f>
+        <v>0.13848622566059571</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22" si="73">S20/S21</f>
-        <v>-9.9573549967355082E-2</v>
+        <f t="shared" ref="S22" si="69">S20/S21</f>
+        <v>1.9318612160048705</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" ref="T22" si="74">T20/T21</f>
-        <v>0.24171441133586691</v>
+        <f t="shared" ref="T22:Y22" si="70">T20/T21</f>
+        <v>0.30455577807743295</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22" si="75">U20/U21</f>
-        <v>0.6179232213500816</v>
+        <f t="shared" si="70"/>
+        <v>0.37155142771845534</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" ref="V22" si="76">V20/V21</f>
-        <v>1.0313700507871393</v>
+        <f t="shared" si="70"/>
+        <v>0.43928210118611855</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" ref="W22" si="77">W20/W21</f>
-        <v>1.4845142994454434</v>
+        <f t="shared" si="70"/>
+        <v>0.50776810264458117</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" ref="X22" si="78">X20/X21</f>
-        <v>1.979966043928626</v>
+        <f t="shared" si="70"/>
+        <v>0.57703008260833721</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="70"/>
+        <v>0.64708904534361833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:113" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2905,15 +3090,15 @@
         <v>6.4624505928853759</v>
       </c>
       <c r="H24" s="7" t="e">
-        <f t="shared" ref="H24:J24" si="79">H12/D12-1</f>
+        <f t="shared" ref="H24:J24" si="71">H12/D12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="7" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="7" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="7"/>
@@ -2928,52 +3113,62 @@
       </c>
       <c r="O24" s="7">
         <f>O12/N12-1</f>
-        <v>4.3754745634017045E-3</v>
-      </c>
-      <c r="P24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="7" t="e">
         <f>P12/O12-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="7" t="e">
         <f>Q12/P12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" ref="R24:S24" si="80">R12/Q12-1</f>
-        <v>0.19900000000000007</v>
+        <f t="shared" ref="R24:S24" si="72">R12/Q12-1</f>
+        <v>5.04E-2</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="80"/>
-        <v>-9.0909090909089274E-3</v>
+        <f t="shared" si="72"/>
+        <v>1.3448035507730269</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" ref="T24:X24" si="81">T12/S12-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="T24" si="73">T12/S12-1</f>
+        <v>-0.52945304964407169</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" si="81"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="U24" si="74">U12/T12-1</f>
+        <v>5.04E-2</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" si="81"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="V24" si="75">V12/U12-1</f>
+        <v>5.0400000000000444E-2</v>
       </c>
       <c r="W24" s="7">
-        <f t="shared" si="81"/>
-        <v>8.9999999999999858E-2</v>
+        <f t="shared" ref="W24" si="76">W12/V12-1</f>
+        <v>5.0399999999999778E-2</v>
       </c>
       <c r="X24" s="7">
-        <f t="shared" si="81"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="X24" si="77">X12/W12-1</f>
+        <v>5.0400000000000222E-2</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" ref="Y24" si="78">Y12/X12-1</f>
+        <v>5.04E-2</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25" spans="1:113" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25" si="82">G19/G18</f>
+        <f t="shared" ref="G25" si="79">G19/G18</f>
         <v>2.4067388688327317E-3</v>
       </c>
       <c r="H25" s="8">
@@ -2991,57 +3186,61 @@
         <v>-8.3200636942675141E-2</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" ref="M25:O25" si="83">M19/M18</f>
+        <f t="shared" ref="M25:O25" si="80">M19/M18</f>
         <v>-2.4813895781637717E-3</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>-3.070624360286591E-3</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="83"/>
-        <v>-1.2520908323418885E-3</v>
+        <f t="shared" si="80"/>
+        <v>-4.4761213676235129E-4</v>
       </c>
       <c r="P25" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R25" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="Z25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:113" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AA25" s="10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="Z26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA26" s="10">
-        <v>-0.01</v>
+      <c r="AB26" s="6">
+        <f>NPV(AB25,P20:XFD20)+Main!K6-Main!K7</f>
+        <v>961.09742070864218</v>
       </c>
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.2">
@@ -3053,100 +3252,105 @@
         <v>-3.2924901185770747</v>
       </c>
       <c r="D27" s="8" t="e">
-        <f t="shared" ref="D27:S27" si="84">D16/D12</f>
+        <f t="shared" ref="D27:S27" si="81">D16/D12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="8" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="8" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.37817796610169491</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>-3.6960000000000002</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>-3.6495049504950496</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>-3.6034702480149008</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>-2.0030441400304415</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>-5.1146496815286628</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>-0.94988610478359936</v>
       </c>
-      <c r="O27" s="8">
-        <f t="shared" si="84"/>
-        <v>-0.77507300063314466</v>
+      <c r="O27" s="8" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P27" s="8" t="e">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="84"/>
-        <v>-0.17895969897199224</v>
+        <f t="shared" si="81"/>
+        <v>3.5560969950110169E-2</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="84"/>
-        <v>-2.951537073754641E-3</v>
+        <f t="shared" si="81"/>
+        <v>8.1836414651666245E-2</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="84"/>
-        <v>-3.2395985868580453E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.60842622187021311</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" ref="T27:X27" si="85">T16/T12</f>
-        <v>3.3904673774355985E-2</v>
+        <f t="shared" ref="T27:Y27" si="82">T16/T12</f>
+        <v>0.167832715027491</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="85"/>
-        <v>9.5947492889764369E-2</v>
+        <f t="shared" si="82"/>
+        <v>0.20776153372761894</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="85"/>
-        <v>0.15400591077757761</v>
+        <f t="shared" si="82"/>
+        <v>0.24577449897907394</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="85"/>
-        <v>0.20833580641571484</v>
+        <f t="shared" si="82"/>
+        <v>0.28196353672798335</v>
       </c>
       <c r="X27" s="8">
-        <f t="shared" si="85"/>
-        <v>0.25917662618718285</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA27" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:113" ht="15" x14ac:dyDescent="0.25">
-      <c r="Z28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA28" s="6">
-        <f>NPV(AA27,O20:XFD20)+Main!K6-Main!K7</f>
-        <v>1201.8442661947506</v>
+        <f t="shared" si="82"/>
+        <v>0.31641616215535379</v>
+      </c>
+      <c r="Y27" s="8">
+        <f t="shared" si="82"/>
+        <v>0.34921569131316998</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="2">
+        <f>AB26/Main!K4</f>
+        <v>13.167271108395692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB28" s="8">
+        <f>AB27/Main!K3-1</f>
+        <v>0.75563614778609223</v>
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.2">
@@ -3159,15 +3363,15 @@
       </c>
       <c r="H29" s="3">
         <f>G29+H20</f>
-        <v>747.30949999999996</v>
+        <v>739.03649999999993</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ref="I29:J29" si="86">H29+I20</f>
-        <v>666.36914249999995</v>
+        <f t="shared" ref="I29:J29" si="83">H29+I20</f>
+        <v>650.58168249999994</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="86"/>
-        <v>584.46717963749995</v>
+        <f t="shared" si="83"/>
+        <v>561.93709091249991</v>
       </c>
       <c r="L29" s="3">
         <f>L31-L33</f>
@@ -3183,59 +3387,47 @@
       </c>
       <c r="O29" s="3">
         <f>J29</f>
-        <v>584.46717963749995</v>
+        <v>561.93709091249991</v>
       </c>
       <c r="P29" s="3">
         <f>O29+P20</f>
-        <v>162.73940887683739</v>
+        <v>103.57583273074988</v>
       </c>
       <c r="Q29" s="3">
         <f>P29+Q20</f>
-        <v>101.56112318281708</v>
+        <v>109.57054938536487</v>
       </c>
       <c r="R29" s="3">
         <f>Q29+R20</f>
-        <v>105.72552876268927</v>
+        <v>121.24544965307217</v>
       </c>
       <c r="S29" s="3">
         <f>R29+S20</f>
-        <v>97.079278224674553</v>
+        <v>288.99437578584565</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" ref="T29:X29" si="87">S29+T20</f>
-        <v>118.69768050656708</v>
+        <f t="shared" ref="T29" si="84">S29+T20</f>
+        <v>316.23317090511608</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="87"/>
-        <v>175.62133717139162</v>
+        <f t="shared" ref="U29" si="85">T29+U20</f>
+        <v>350.46083086999101</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="87"/>
-        <v>273.48241961013053</v>
+        <f t="shared" ref="V29" si="86">U29+V20</f>
+        <v>392.14191506012082</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="87"/>
-        <v>418.56561396166535</v>
+        <f t="shared" ref="W29" si="87">V29+W20</f>
+        <v>441.76664305971877</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="87"/>
-        <v>617.87497219559191</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="2">
-        <f>AA28/Main!K4</f>
-        <v>16.465562118967053</v>
-      </c>
-    </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="Z30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA30" s="8">
-        <f>AA29/Main!K3-1</f>
-        <v>1.1954082825289403</v>
+        <f t="shared" ref="X29" si="88">W29+X20</f>
+        <v>499.85223286010785</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" ref="Y29" si="89">X29+Y20</f>
+        <v>566.94430740624011</v>
       </c>
     </row>
     <row r="31" spans="1:113" x14ac:dyDescent="0.2">
@@ -3255,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -3269,117 +3461,6 @@
       </c>
       <c r="O33" s="3">
         <f>J33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3">
-        <v>-97.5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-88.9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3">
-        <f>C35-C36</f>
-        <v>-97.6</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" ref="D37:G37" si="88">D35-D36</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="88"/>
-        <v>-89.300000000000011</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" ref="H37" si="89">H35-H36</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" ref="I37" si="90">I35-I36</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" ref="J37:N37" si="91">J35-J36</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <f t="shared" ref="O37" si="92">O35-O36</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <f t="shared" ref="P37" si="93">P35-P36</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" ref="Q37" si="94">Q35-Q36</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" ref="R37" si="95">R35-R36</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="3">
-        <f t="shared" ref="S37" si="96">S35-S36</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="3">
-        <f t="shared" ref="T37" si="97">T35-T36</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
-        <f t="shared" ref="U37" si="98">U35-U36</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="3">
-        <f t="shared" ref="V37" si="99">V35-V36</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="3">
-        <f t="shared" ref="W37" si="100">W35-W36</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="3">
-        <f t="shared" ref="X37" si="101">X35-X36</f>
         <v>0</v>
       </c>
     </row>
@@ -3399,7 +3480,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3416,74 +3497,74 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
@@ -3519,39 +3600,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
@@ -3590,58 +3671,58 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +3752,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -3679,50 +3760,50 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3752,48 +3833,48 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD6B2F-B838-4A7F-9FFF-5BA6D3D30611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99192C15-B34E-49CC-A643-9B187679D971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="465" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
-  <si>
-    <t>ARVN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>Price</t>
   </si>
@@ -450,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +455,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -475,6 +471,28 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -587,41 +605,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,307 +1114,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BB678-3E4D-4596-B817-7F0BBEA796CF}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9" style="12"/>
+    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="15.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="J4" t="s">
+      <c r="K4" s="4">
+        <v>72.991389999999996</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="3">
-        <v>72.991389999999996</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f>K4*K3</f>
         <v>547.43542500000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="J6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
         <f>81+873.3</f>
         <v>954.3</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
+      <c r="L6" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="F7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
         <f>118.4+0.5+8.1</f>
         <v>127</v>
       </c>
-      <c r="L7" t="s">
-        <v>7</v>
+      <c r="L7" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>39</v>
+      <c r="B8" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="J8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
         <f>K4+K7-K6</f>
         <v>-754.30860999999993</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1412,492 +1434,492 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3490E-060A-4BBA-A7F8-7C82CDA69E04}">
   <dimension ref="A1:DI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="9">
+      <c r="L1" s="5">
         <v>2022</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="5">
         <f>L1+1</f>
         <v>2023</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="5">
         <f>M1+1</f>
         <v>2024</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="5">
         <f>N1+1</f>
         <v>2025</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="5">
         <f t="shared" ref="P1:T1" si="0">O1+1</f>
         <v>2026</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="5">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="5">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="5">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="5">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="5">
         <f t="shared" ref="U1" si="1">T1+1</f>
         <v>2031</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="5">
         <f t="shared" ref="V1" si="2">U1+1</f>
         <v>2032</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="5">
         <f t="shared" ref="W1" si="3">V1+1</f>
         <v>2033</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="5">
         <f t="shared" ref="X1" si="4">W1+1</f>
         <v>2034</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="5">
         <f t="shared" ref="Y1" si="5">X1+1</f>
         <v>2035</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4">
         <v>20000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="4">
         <f>N2*1.02</f>
         <v>20400</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="4">
         <f>O2*1.04</f>
         <v>21216</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="4">
         <f t="shared" ref="Q2:Y2" si="6">P2*1.04</f>
         <v>22064.639999999999</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="4">
         <f t="shared" si="6"/>
         <v>22947.225600000002</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="4">
         <f t="shared" si="6"/>
         <v>23865.114624000002</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="4">
         <f t="shared" si="6"/>
         <v>24819.719208960003</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="4">
         <f t="shared" si="6"/>
         <v>25812.507977318404</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="4">
         <f t="shared" si="6"/>
         <v>26845.008296411143</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="4">
         <f t="shared" si="6"/>
         <v>27918.80862826759</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="4">
         <f t="shared" si="6"/>
         <v>29035.560973398296</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="4">
         <f t="shared" si="6"/>
         <v>30196.98341233423</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4">
         <v>10000</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <v>10000</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <v>10000</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="4">
         <v>10000</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="4">
         <f>Q3*1.01</f>
         <v>10100</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="4">
         <f t="shared" ref="S3:Y3" si="7">R3*1.01</f>
         <v>10201</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="4">
         <f t="shared" si="7"/>
         <v>10303.01</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="4">
         <f t="shared" si="7"/>
         <v>10406.0401</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="4">
         <f t="shared" si="7"/>
         <v>10510.100501000001</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="4">
         <f t="shared" si="7"/>
         <v>10615.20150601</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="4">
         <f t="shared" si="7"/>
         <v>10721.353521070101</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="4">
         <f t="shared" si="7"/>
         <v>10828.567056280803</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="4">
         <v>334</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="5">
         <v>297</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4">
         <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="A6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" ref="C7:J7" si="8">C12</f>
         <v>25.3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="8"/>
         <v>188.8</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <f t="shared" si="8"/>
         <v>25.25</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="8"/>
         <v>25.502500000000001</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="3">
+      <c r="M7" s="5"/>
+      <c r="N7" s="4">
         <f>N12</f>
         <v>263.39999999999998</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="4">
         <f>O12</f>
         <v>0</v>
       </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <v>150</v>
       </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="4">
         <f>SUM(G10:J10)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="4">
         <f>SUM(G11:J11)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <f>Q3*Q2/1000000/2</f>
         <v>110.3232</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="5">
         <f t="shared" ref="R11:T11" si="9">R3*R2/1000000/2</f>
         <v>115.88348928000001</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="5">
         <f t="shared" si="9"/>
         <v>121.724017139712</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="5">
         <f t="shared" si="9"/>
         <v>127.8589076035535</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="5">
         <f t="shared" ref="U11:Y11" si="10">U3*U2/1000000/2</f>
         <v>134.30299654677259</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="5">
         <f t="shared" si="10"/>
         <v>141.07186757272999</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="5">
         <f t="shared" si="10"/>
         <v>148.18188969839554</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="5">
         <f t="shared" si="10"/>
         <v>155.65025693919472</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="5">
         <f t="shared" si="10"/>
         <v>163.49502988893013</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6">
         <v>25.3</v>
@@ -1970,520 +1992,520 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
         <v>84.3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>90.8</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f>G13</f>
         <v>90.8</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <f t="shared" ref="I13:J13" si="14">H13</f>
         <v>90.8</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="14"/>
         <v>90.8</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>315</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="4">
         <v>379.7</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="4">
         <v>348.2</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="4">
         <f>SUM(G13:J13)</f>
         <v>363.2</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <f>O13</f>
         <v>363.2</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
         <v>24.3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>26.6</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <f>G14</f>
         <v>26.6</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <f t="shared" ref="I14:J14" si="15">H14</f>
         <v>26.6</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <f t="shared" si="15"/>
         <v>26.6</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>79.599999999999994</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>100.3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="4">
         <v>165.4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="4">
         <f>SUM(G14:J14)</f>
         <v>106.4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <f>O14</f>
         <v>106.4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <f t="shared" ref="Q14:T14" si="16">P14</f>
         <v>106.4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="4">
         <f t="shared" si="16"/>
         <v>106.4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="4">
         <f t="shared" si="16"/>
         <v>106.4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="4">
         <f t="shared" si="16"/>
         <v>106.4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="4">
         <f t="shared" ref="U14" si="17">T14</f>
         <v>106.4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="4">
         <f t="shared" ref="V14" si="18">U14</f>
         <v>106.4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="4">
         <f t="shared" ref="W14" si="19">V14</f>
         <v>106.4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="4">
         <f t="shared" ref="X14" si="20">W14</f>
         <v>106.4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="4">
         <f t="shared" ref="Y14" si="21">X14</f>
         <v>106.4</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
         <f>SUM(C13:C14)</f>
         <v>108.6</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f>SUM(G13:G14)</f>
         <v>117.4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" ref="H15:N15" si="22">SUM(H13:H14)</f>
         <v>117.4</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <f t="shared" si="22"/>
         <v>117.4</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="22"/>
         <v>117.4</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="4">
         <f t="shared" si="22"/>
         <v>394.6</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="4">
         <f t="shared" si="22"/>
         <v>480</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <f t="shared" si="22"/>
         <v>513.6</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <f t="shared" ref="O15" si="23">SUM(O13:O14)</f>
         <v>469.6</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <f t="shared" ref="P15" si="24">SUM(P13:P14)</f>
         <v>469.6</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="4">
         <f t="shared" ref="Q15" si="25">SUM(Q13:Q14)</f>
         <v>106.4</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="4">
         <f t="shared" ref="R15" si="26">SUM(R13:R14)</f>
         <v>106.4</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="4">
         <f t="shared" ref="S15" si="27">SUM(S13:S14)</f>
         <v>106.4</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="4">
         <f t="shared" ref="T15:Y15" si="28">SUM(T13:T14)</f>
         <v>106.4</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="4">
         <f t="shared" si="28"/>
         <v>106.4</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="4">
         <f t="shared" si="28"/>
         <v>106.4</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="4">
         <f t="shared" si="28"/>
         <v>106.4</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="4">
         <f t="shared" si="28"/>
         <v>106.4</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="4">
         <f t="shared" si="28"/>
         <v>106.4</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
         <f>C12-C15</f>
         <v>-83.3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <f>G12-G15</f>
         <v>71.400000000000006</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" ref="H16:N16" si="29">H12-H15</f>
         <v>-92.4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <f t="shared" si="29"/>
         <v>-92.15</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" si="29"/>
         <v>-91.897500000000008</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <f t="shared" si="29"/>
         <v>-263.20000000000005</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="4">
         <f t="shared" si="29"/>
         <v>-401.5</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <f t="shared" si="29"/>
         <v>-250.20000000000005</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="4">
         <f t="shared" ref="O16" si="30">O12-O15</f>
         <v>-469.6</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <f t="shared" ref="P16" si="31">P12-P15</f>
         <v>-469.6</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="4">
         <f t="shared" ref="Q16" si="32">Q12-Q15</f>
         <v>3.9231999999999942</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="4">
         <f t="shared" ref="R16" si="33">R12-R15</f>
         <v>9.4834892800000006</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="4">
         <f t="shared" ref="S16" si="34">S12-S15</f>
         <v>165.32401713971203</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="4">
         <f t="shared" ref="T16:Y16" si="35">T12-T15</f>
         <v>21.458907603553499</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="4">
         <f t="shared" si="35"/>
         <v>27.902996546772584</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="4">
         <f t="shared" si="35"/>
         <v>34.67186757272998</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="4">
         <f t="shared" si="35"/>
         <v>41.781889698395531</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="4">
         <f t="shared" si="35"/>
         <v>49.250256939194713</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="4">
         <f t="shared" si="35"/>
         <v>57.095029888930128</v>
       </c>
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>11.7</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f>G29*$AB$23/4</f>
         <v>4.1364999999999998</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <f>H29*$AB$23/4</f>
         <v>3.6951824999999996</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f>I29*$AB$23/4</f>
         <v>3.2529084124999996</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <v>12</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="4">
         <v>38.799999999999997</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <v>54.8</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="4">
         <f>SUM(G17:J17)</f>
         <v>22.784590912499997</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="4">
         <f t="shared" ref="P17:Y17" si="36">O29*$AB$23</f>
         <v>11.238741818249999</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="4">
         <f t="shared" si="36"/>
         <v>2.0715166546149977</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="4">
         <f t="shared" si="36"/>
         <v>2.1914109877072976</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="4">
         <f t="shared" si="36"/>
         <v>2.4249089930614436</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="4">
         <f t="shared" si="36"/>
         <v>5.7798875157169132</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="4">
         <f t="shared" si="36"/>
         <v>6.3246634181023218</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="4">
         <f t="shared" si="36"/>
         <v>7.0092166173998205</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="4">
         <f t="shared" si="36"/>
         <v>7.8428383012024163</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="4">
         <f t="shared" si="36"/>
         <v>8.8353328611943756</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="4">
         <f t="shared" si="36"/>
         <v>9.9970446572021565</v>
       </c>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
         <f>C16+C17</f>
         <v>-69.3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f>G16+G17</f>
         <v>83.100000000000009</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" ref="H18:N18" si="37">H16+H17</f>
         <v>-88.263500000000008</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <f t="shared" si="37"/>
         <v>-88.454817500000004</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="37"/>
         <v>-88.644591587500003</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <f t="shared" si="37"/>
         <v>-251.20000000000005</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="4">
         <f t="shared" si="37"/>
         <v>-362.7</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4">
         <f t="shared" si="37"/>
         <v>-195.40000000000003</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="4">
         <f t="shared" ref="O18" si="38">O16+O17</f>
         <v>-446.81540908750003</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="4">
         <f t="shared" ref="P18" si="39">P16+P17</f>
         <v>-458.36125818175003</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="4">
         <f t="shared" ref="Q18" si="40">Q16+Q17</f>
         <v>5.9947166546149919</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="4">
         <f t="shared" ref="R18" si="41">R16+R17</f>
         <v>11.674900267707297</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="4">
         <f t="shared" ref="S18" si="42">S16+S17</f>
         <v>167.74892613277348</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="4">
         <f t="shared" ref="T18:Y18" si="43">T16+T17</f>
         <v>27.238795119270414</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="4">
         <f t="shared" si="43"/>
         <v>34.227659964874903</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="4">
         <f t="shared" si="43"/>
         <v>41.681084190129802</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="4">
         <f t="shared" si="43"/>
         <v>49.624727999597951</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="4">
         <f t="shared" si="43"/>
         <v>58.085589800389087</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="4">
         <f t="shared" si="43"/>
         <v>67.092074546132281</v>
       </c>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
         <v>0.1</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>0.2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f>H18*H25</f>
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <f t="shared" ref="I19:J19" si="44">I18*I25</f>
         <v>0</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <v>20.9</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="4">
         <v>0.9</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="4">
         <v>0.6</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="4">
         <f>SUM(G19:J19)</f>
         <v>0.2</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="4">
         <f>P18*P25</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="4">
         <f t="shared" ref="Q19:S19" si="45">Q18*Q25</f>
         <v>0</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="4">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="4">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="4">
         <f t="shared" ref="T19:Y19" si="46">T18*T25</f>
         <v>0</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="4">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="4">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="4">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="4">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="4">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:113" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:113" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6">
         <f>C18-C19</f>
@@ -2563,903 +2585,903 @@
       </c>
       <c r="Z20" s="6">
         <f t="shared" ref="Z20:BE20" si="54">Y20*(1+$AB$24)</f>
-        <v>66.421153800670965</v>
+        <v>65.750233055209634</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="54"/>
-        <v>65.756942262664253</v>
+        <v>64.435228394105437</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="54"/>
-        <v>65.099372840037617</v>
+        <v>63.14652382622333</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="54"/>
-        <v>64.448379111637237</v>
+        <v>61.883593349698863</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="54"/>
-        <v>63.803895320520866</v>
+        <v>60.645921482704885</v>
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="54"/>
-        <v>63.165856367315655</v>
+        <v>59.43300305305079</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="54"/>
-        <v>62.534197803642499</v>
+        <v>58.244342991989775</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="54"/>
-        <v>61.908855825606075</v>
+        <v>57.079456132149978</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="54"/>
-        <v>61.289767267350015</v>
+        <v>55.937867009506981</v>
       </c>
       <c r="AI20" s="6">
         <f t="shared" si="54"/>
-        <v>60.676869594676518</v>
+        <v>54.819109669316838</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="54"/>
-        <v>60.070100898729756</v>
+        <v>53.722727475930498</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="54"/>
-        <v>59.469399889742455</v>
+        <v>52.648272926411884</v>
       </c>
       <c r="AL20" s="6">
         <f t="shared" si="54"/>
-        <v>58.874705890845028</v>
+        <v>51.595307467883643</v>
       </c>
       <c r="AM20" s="6">
         <f t="shared" si="54"/>
-        <v>58.285958831936576</v>
+        <v>50.563401318525969</v>
       </c>
       <c r="AN20" s="6">
         <f t="shared" si="54"/>
-        <v>57.70309924361721</v>
+        <v>49.552133292155446</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="54"/>
-        <v>57.126068251181039</v>
+        <v>48.561090626312335</v>
       </c>
       <c r="AP20" s="6">
         <f t="shared" si="54"/>
-        <v>56.554807568669226</v>
+        <v>47.58986881378609</v>
       </c>
       <c r="AQ20" s="6">
         <f t="shared" si="54"/>
-        <v>55.989259492982534</v>
+        <v>46.638071437510369</v>
       </c>
       <c r="AR20" s="6">
         <f t="shared" si="54"/>
-        <v>55.429366898052706</v>
+        <v>45.705310008760158</v>
       </c>
       <c r="AS20" s="6">
         <f t="shared" si="54"/>
-        <v>54.875073229072179</v>
+        <v>44.791203808584953</v>
       </c>
       <c r="AT20" s="6">
         <f t="shared" si="54"/>
-        <v>54.326322496781458</v>
+        <v>43.895379732413254</v>
       </c>
       <c r="AU20" s="6">
         <f t="shared" si="54"/>
-        <v>53.783059271813642</v>
+        <v>43.01747213776499</v>
       </c>
       <c r="AV20" s="6">
         <f t="shared" si="54"/>
-        <v>53.245228679095504</v>
+        <v>42.15712269500969</v>
       </c>
       <c r="AW20" s="6">
         <f t="shared" si="54"/>
-        <v>52.712776392304548</v>
+        <v>41.313980241109498</v>
       </c>
       <c r="AX20" s="6">
         <f t="shared" si="54"/>
-        <v>52.1856486283815</v>
+        <v>40.487700636287308</v>
       </c>
       <c r="AY20" s="6">
         <f t="shared" si="54"/>
-        <v>51.663792142097684</v>
+        <v>39.67794662356156</v>
       </c>
       <c r="AZ20" s="6">
         <f t="shared" si="54"/>
-        <v>51.147154220676704</v>
+        <v>38.884387691090325</v>
       </c>
       <c r="BA20" s="6">
         <f t="shared" si="54"/>
-        <v>50.635682678469934</v>
+        <v>38.106699937268516</v>
       </c>
       <c r="BB20" s="6">
         <f t="shared" si="54"/>
-        <v>50.12932585168523</v>
+        <v>37.344565938523147</v>
       </c>
       <c r="BC20" s="6">
         <f t="shared" si="54"/>
-        <v>49.628032593168378</v>
+        <v>36.597674619752681</v>
       </c>
       <c r="BD20" s="6">
         <f t="shared" si="54"/>
-        <v>49.131752267236692</v>
+        <v>35.865721127357624</v>
       </c>
       <c r="BE20" s="6">
         <f t="shared" si="54"/>
-        <v>48.640434744564324</v>
+        <v>35.148406704810469</v>
       </c>
       <c r="BF20" s="6">
         <f t="shared" ref="BF20:CK20" si="55">BE20*(1+$AB$24)</f>
-        <v>48.154030397118682</v>
+        <v>34.445438570714259</v>
       </c>
       <c r="BG20" s="6">
         <f t="shared" si="55"/>
-        <v>47.672490093147495</v>
+        <v>33.756529799299976</v>
       </c>
       <c r="BH20" s="6">
         <f t="shared" si="55"/>
-        <v>47.195765192216022</v>
+        <v>33.081399203313978</v>
       </c>
       <c r="BI20" s="6">
         <f t="shared" si="55"/>
-        <v>46.723807540293862</v>
+        <v>32.4197712192477</v>
       </c>
       <c r="BJ20" s="6">
         <f t="shared" si="55"/>
-        <v>46.256569464890923</v>
+        <v>31.771375794862745</v>
       </c>
       <c r="BK20" s="6">
         <f t="shared" si="55"/>
-        <v>45.794003770242014</v>
+        <v>31.13594827896549</v>
       </c>
       <c r="BL20" s="6">
         <f t="shared" si="55"/>
-        <v>45.336063732539593</v>
+        <v>30.51322931338618</v>
       </c>
       <c r="BM20" s="6">
         <f t="shared" si="55"/>
-        <v>44.882703095214197</v>
+        <v>29.902964727118455</v>
       </c>
       <c r="BN20" s="6">
         <f t="shared" si="55"/>
-        <v>44.433876064262051</v>
+        <v>29.304905432576085</v>
       </c>
       <c r="BO20" s="6">
         <f t="shared" si="55"/>
-        <v>43.989537303619429</v>
+        <v>28.718807323924562</v>
       </c>
       <c r="BP20" s="6">
         <f t="shared" si="55"/>
-        <v>43.549641930583235</v>
+        <v>28.144431177446069</v>
       </c>
       <c r="BQ20" s="6">
         <f t="shared" si="55"/>
-        <v>43.1141455112774</v>
+        <v>27.581542553897147</v>
       </c>
       <c r="BR20" s="6">
         <f t="shared" si="55"/>
-        <v>42.683004056164627</v>
+        <v>27.029911702819206</v>
       </c>
       <c r="BS20" s="6">
         <f t="shared" si="55"/>
-        <v>42.25617401560298</v>
+        <v>26.48931346876282</v>
       </c>
       <c r="BT20" s="6">
         <f t="shared" si="55"/>
-        <v>41.833612275446953</v>
+        <v>25.959527199387562</v>
       </c>
       <c r="BU20" s="6">
         <f t="shared" si="55"/>
-        <v>41.415276152692485</v>
+        <v>25.440336655399811</v>
       </c>
       <c r="BV20" s="6">
         <f t="shared" si="55"/>
-        <v>41.001123391165557</v>
+        <v>24.931529922291816</v>
       </c>
       <c r="BW20" s="6">
         <f t="shared" si="55"/>
-        <v>40.591112157253903</v>
+        <v>24.43289932384598</v>
       </c>
       <c r="BX20" s="6">
         <f t="shared" si="55"/>
-        <v>40.185201035681366</v>
+        <v>23.944241337369061</v>
       </c>
       <c r="BY20" s="6">
         <f t="shared" si="55"/>
-        <v>39.783349025324554</v>
+        <v>23.465356510621678</v>
       </c>
       <c r="BZ20" s="6">
         <f t="shared" si="55"/>
-        <v>39.385515535071306</v>
+        <v>22.996049380409243</v>
       </c>
       <c r="CA20" s="6">
         <f t="shared" si="55"/>
-        <v>38.991660379720592</v>
+        <v>22.536128392801057</v>
       </c>
       <c r="CB20" s="6">
         <f t="shared" si="55"/>
-        <v>38.601743775923389</v>
+        <v>22.085405824945035</v>
       </c>
       <c r="CC20" s="6">
         <f t="shared" si="55"/>
-        <v>38.215726338164153</v>
+        <v>21.643697708446133</v>
       </c>
       <c r="CD20" s="6">
         <f t="shared" si="55"/>
-        <v>37.83356907478251</v>
+        <v>21.210823754277211</v>
       </c>
       <c r="CE20" s="6">
         <f t="shared" si="55"/>
-        <v>37.455233384034685</v>
+        <v>20.786607279191667</v>
       </c>
       <c r="CF20" s="6">
         <f t="shared" si="55"/>
-        <v>37.080681050194336</v>
+        <v>20.370875133607832</v>
       </c>
       <c r="CG20" s="6">
         <f t="shared" si="55"/>
-        <v>36.70987423969239</v>
+        <v>19.963457630935675</v>
       </c>
       <c r="CH20" s="6">
         <f t="shared" si="55"/>
-        <v>36.342775497295463</v>
+        <v>19.564188478316961</v>
       </c>
       <c r="CI20" s="6">
         <f t="shared" si="55"/>
-        <v>35.97934774232251</v>
+        <v>19.172904708750622</v>
       </c>
       <c r="CJ20" s="6">
         <f t="shared" si="55"/>
-        <v>35.619554264899286</v>
+        <v>18.78944661457561</v>
       </c>
       <c r="CK20" s="6">
         <f t="shared" si="55"/>
-        <v>35.263358722250295</v>
+        <v>18.413657682284096</v>
       </c>
       <c r="CL20" s="6">
         <f t="shared" ref="CL20:DI20" si="56">CK20*(1+$AB$24)</f>
-        <v>34.910725135027789</v>
+        <v>18.045384528638415</v>
       </c>
       <c r="CM20" s="6">
         <f t="shared" si="56"/>
-        <v>34.561617883677513</v>
+        <v>17.684476838065645</v>
       </c>
       <c r="CN20" s="6">
         <f t="shared" si="56"/>
-        <v>34.216001704840735</v>
+        <v>17.330787301304333</v>
       </c>
       <c r="CO20" s="6">
         <f t="shared" si="56"/>
-        <v>33.873841687792329</v>
+        <v>16.984171555278248</v>
       </c>
       <c r="CP20" s="6">
         <f t="shared" si="56"/>
-        <v>33.535103270914405</v>
+        <v>16.644488124172682</v>
       </c>
       <c r="CQ20" s="6">
         <f t="shared" si="56"/>
-        <v>33.199752238205264</v>
+        <v>16.311598361689228</v>
       </c>
       <c r="CR20" s="6">
         <f t="shared" si="56"/>
-        <v>32.86775471582321</v>
+        <v>15.985366394455443</v>
       </c>
       <c r="CS20" s="6">
         <f t="shared" si="56"/>
-        <v>32.539077168664974</v>
+        <v>15.665659066566334</v>
       </c>
       <c r="CT20" s="6">
         <f t="shared" si="56"/>
-        <v>32.213686396978325</v>
+        <v>15.352345885235007</v>
       </c>
       <c r="CU20" s="6">
         <f t="shared" si="56"/>
-        <v>31.89154953300854</v>
+        <v>15.045298967530305</v>
       </c>
       <c r="CV20" s="6">
         <f t="shared" si="56"/>
-        <v>31.572634037678455</v>
+        <v>14.744392988179699</v>
       </c>
       <c r="CW20" s="6">
         <f t="shared" si="56"/>
-        <v>31.256907697301671</v>
+        <v>14.449505128416105</v>
       </c>
       <c r="CX20" s="6">
         <f t="shared" si="56"/>
-        <v>30.944338620328654</v>
+        <v>14.160515025847783</v>
       </c>
       <c r="CY20" s="6">
         <f t="shared" si="56"/>
-        <v>30.634895234125366</v>
+        <v>13.877304725330827</v>
       </c>
       <c r="CZ20" s="6">
         <f t="shared" si="56"/>
-        <v>30.328546281784114</v>
+        <v>13.59975863082421</v>
       </c>
       <c r="DA20" s="6">
         <f t="shared" si="56"/>
-        <v>30.025260818966274</v>
+        <v>13.327763458207725</v>
       </c>
       <c r="DB20" s="6">
         <f t="shared" si="56"/>
-        <v>29.725008210776611</v>
+        <v>13.061208189043571</v>
       </c>
       <c r="DC20" s="6">
         <f t="shared" si="56"/>
-        <v>29.427758128668845</v>
+        <v>12.799984025262699</v>
       </c>
       <c r="DD20" s="6">
         <f t="shared" si="56"/>
-        <v>29.133480547382156</v>
+        <v>12.543984344757444</v>
       </c>
       <c r="DE20" s="6">
         <f t="shared" si="56"/>
-        <v>28.842145741908336</v>
+        <v>12.293104657862294</v>
       </c>
       <c r="DF20" s="6">
         <f t="shared" si="56"/>
-        <v>28.553724284489252</v>
+        <v>12.047242564705048</v>
       </c>
       <c r="DG20" s="6">
         <f t="shared" si="56"/>
-        <v>28.26818704164436</v>
+        <v>11.806297713410947</v>
       </c>
       <c r="DH20" s="6">
         <f t="shared" si="56"/>
-        <v>27.985505171227917</v>
+        <v>11.570171759142728</v>
       </c>
       <c r="DI20" s="6">
         <f t="shared" si="56"/>
-        <v>27.705650119515639</v>
+        <v>11.338768323959872</v>
       </c>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
         <v>71.7</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>72.7</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <f>G21*1.02</f>
         <v>74.154000000000011</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <f t="shared" ref="I21:J21" si="57">H21*1.02</f>
         <v>75.637080000000012</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <f t="shared" si="57"/>
         <v>77.14982160000001</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <v>53.2</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="4">
         <v>55.5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4">
         <v>71.900000000000006</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="4">
         <f>J21</f>
         <v>77.14982160000001</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="4">
         <f>O21*1.03</f>
         <v>79.464316248000017</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="4">
         <f t="shared" ref="Q21:T21" si="58">P21*1.03</f>
         <v>81.848245735440017</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="4">
         <f t="shared" si="58"/>
         <v>84.303693107503221</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="4">
         <f t="shared" si="58"/>
         <v>86.832803900728322</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="4">
         <f t="shared" si="58"/>
         <v>89.437788017750179</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="4">
         <f t="shared" ref="U21" si="59">T21*1.03</f>
         <v>92.120921658282683</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="4">
         <f t="shared" ref="V21" si="60">U21*1.03</f>
         <v>94.884549308031168</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="4">
         <f t="shared" ref="W21" si="61">V21*1.03</f>
         <v>97.731085787272107</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="4">
         <f t="shared" ref="X21" si="62">W21*1.03</f>
         <v>100.66301836089028</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="4">
         <f t="shared" ref="Y21" si="63">X21*1.03</f>
         <v>103.68290891171699</v>
       </c>
     </row>
     <row r="22" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7">
         <f>C20/C21</f>
         <v>-0.96792189679218954</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="7">
         <f>G20/G21</f>
         <v>1.1403026134800551</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="7">
         <f t="shared" ref="H22:N22" si="64">H20/H21</f>
         <v>-1.1902729454918142</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="7">
         <f t="shared" si="64"/>
         <v>-1.1694636744305833</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="7">
         <f t="shared" si="64"/>
         <v>-1.1489928265433602</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
         <f t="shared" si="64"/>
         <v>-5.1146616541353387</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="7">
         <f t="shared" si="64"/>
         <v>-6.551351351351351</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="7">
         <f t="shared" si="64"/>
         <v>-2.7260083449235051</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="7">
         <f t="shared" ref="O22" si="65">O20/O21</f>
         <v>-5.7941210986222158</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="7">
         <f t="shared" ref="P22" si="66">P20/P21</f>
         <v>-5.768139459619225</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="7">
         <f t="shared" ref="Q22" si="67">Q20/Q21</f>
         <v>7.3241846550894371E-2</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="7">
         <f t="shared" ref="R22" si="68">R20/R21</f>
         <v>0.13848622566059571</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="7">
         <f t="shared" ref="S22" si="69">S20/S21</f>
         <v>1.9318612160048705</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="7">
         <f t="shared" ref="T22:Y22" si="70">T20/T21</f>
         <v>0.30455577807743295</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="7">
         <f t="shared" si="70"/>
         <v>0.37155142771845534</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="7">
         <f t="shared" si="70"/>
         <v>0.43928210118611855</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="7">
         <f t="shared" si="70"/>
         <v>0.50776810264458117</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="7">
         <f t="shared" si="70"/>
         <v>0.57703008260833721</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="7">
         <f t="shared" si="70"/>
         <v>0.64708904534361833</v>
       </c>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="AA23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB23" s="10">
+      <c r="AA23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:113" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:113" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9">
         <f>G12/C12-1</f>
         <v>6.4624505928853759</v>
       </c>
-      <c r="H24" s="7" t="e">
+      <c r="H24" s="9" t="e">
         <f t="shared" ref="H24:J24" si="71">H12/D12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="7" t="e">
+      <c r="I24" s="9" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="7" t="e">
+      <c r="J24" s="9" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9">
         <f>M12/L12-1</f>
         <v>-0.4025875190258752</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="9">
         <f>N12/M12-1</f>
         <v>2.3554140127388532</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="9">
         <f>O12/N12-1</f>
         <v>-1</v>
       </c>
-      <c r="P24" s="7" t="e">
+      <c r="P24" s="9" t="e">
         <f>P12/O12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="7" t="e">
+      <c r="Q24" s="9" t="e">
         <f>Q12/P12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="9">
         <f t="shared" ref="R24:S24" si="72">R12/Q12-1</f>
         <v>5.04E-2</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="9">
         <f t="shared" si="72"/>
         <v>1.3448035507730269</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="9">
         <f t="shared" ref="T24" si="73">T12/S12-1</f>
         <v>-0.52945304964407169</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="9">
         <f t="shared" ref="U24" si="74">U12/T12-1</f>
         <v>5.04E-2</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="9">
         <f t="shared" ref="V24" si="75">V12/U12-1</f>
         <v>5.0400000000000444E-2</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="9">
         <f t="shared" ref="W24" si="76">W12/V12-1</f>
         <v>5.0399999999999778E-2</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="9">
         <f t="shared" ref="X24" si="77">X12/W12-1</f>
         <v>5.0400000000000222E-2</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="9">
         <f t="shared" ref="Y24" si="78">Y12/X12-1</f>
         <v>5.04E-2</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB24" s="10">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:113" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="AA24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:113" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="10">
         <f t="shared" ref="G25" si="79">G19/G18</f>
         <v>2.4067388688327317E-3</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10">
         <f>L19/L18</f>
         <v>-8.3200636942675141E-2</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="10">
         <f t="shared" ref="M25:O25" si="80">M19/M18</f>
         <v>-2.4813895781637717E-3</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="10">
         <f t="shared" si="80"/>
         <v>-3.070624360286591E-3</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="10">
         <f t="shared" si="80"/>
         <v>-4.4761213676235129E-4</v>
       </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
-      <c r="R25" s="8">
-        <v>0</v>
-      </c>
-      <c r="S25" s="8">
-        <v>0</v>
-      </c>
-      <c r="T25" s="8">
-        <v>0</v>
-      </c>
-      <c r="U25" s="8">
-        <v>0</v>
-      </c>
-      <c r="V25" s="8">
-        <v>0</v>
-      </c>
-      <c r="W25" s="8">
-        <v>0</v>
-      </c>
-      <c r="X25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3" t="s">
+      <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
+        <v>0</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="AA26" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AB25" s="10">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:113" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA26" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="AB26" s="6">
         <f>NPV(AB25,P20:XFD20)+Main!K6-Main!K7</f>
-        <v>961.09742070864218</v>
+        <v>933.05187592761786</v>
       </c>
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10">
         <f>C16/C12</f>
         <v>-3.2924901185770747</v>
       </c>
-      <c r="D27" s="8" t="e">
+      <c r="D27" s="10" t="e">
         <f t="shared" ref="D27:S27" si="81">D16/D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="8" t="e">
+      <c r="E27" s="10" t="e">
         <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="8" t="e">
+      <c r="F27" s="10" t="e">
         <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="10">
         <f t="shared" si="81"/>
         <v>0.37817796610169491</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="10">
         <f t="shared" si="81"/>
         <v>-3.6960000000000002</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="10">
         <f t="shared" si="81"/>
         <v>-3.6495049504950496</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="10">
         <f t="shared" si="81"/>
         <v>-3.6034702480149008</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
         <f t="shared" si="81"/>
         <v>-2.0030441400304415</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="10">
         <f t="shared" si="81"/>
         <v>-5.1146496815286628</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="10">
         <f t="shared" si="81"/>
         <v>-0.94988610478359936</v>
       </c>
-      <c r="O27" s="8" t="e">
+      <c r="O27" s="10" t="e">
         <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="8" t="e">
+      <c r="P27" s="10" t="e">
         <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="10">
         <f t="shared" si="81"/>
         <v>3.5560969950110169E-2</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="10">
         <f t="shared" si="81"/>
         <v>8.1836414651666245E-2</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="10">
         <f t="shared" si="81"/>
         <v>0.60842622187021311</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="10">
         <f t="shared" ref="T27:Y27" si="82">T16/T12</f>
         <v>0.167832715027491</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="10">
         <f t="shared" si="82"/>
         <v>0.20776153372761894</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V27" s="10">
         <f t="shared" si="82"/>
         <v>0.24577449897907394</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W27" s="10">
         <f t="shared" si="82"/>
         <v>0.28196353672798335</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X27" s="10">
         <f t="shared" si="82"/>
         <v>0.31641616215535379</v>
       </c>
-      <c r="Y27" s="8">
+      <c r="Y27" s="10">
         <f t="shared" si="82"/>
         <v>0.34921569131316998</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="2">
+      <c r="AA27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7">
         <f>AB26/Main!K4</f>
-        <v>13.167271108395692</v>
+        <v>12.78304024526205</v>
       </c>
     </row>
     <row r="28" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="AA28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB28" s="8">
+      <c r="AA28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" s="10">
         <f>AB27/Main!K3-1</f>
-        <v>0.75563614778609223</v>
+        <v>0.70440536603494008</v>
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="4">
         <f>G31-G33</f>
         <v>827.3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <f>G29+H20</f>
         <v>739.03649999999993</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <f t="shared" ref="I29:J29" si="83">H29+I20</f>
         <v>650.58168249999994</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <f t="shared" si="83"/>
         <v>561.93709091249991</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
         <f>L31-L33</f>
         <v>0</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="4">
         <f>M31-M33</f>
         <v>0</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
         <f>N31-N33</f>
         <v>739.50000000000011</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="4">
         <f>J29</f>
         <v>561.93709091249991</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
         <f>O29+P20</f>
         <v>103.57583273074988</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="4">
         <f>P29+Q20</f>
         <v>109.57054938536487</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="4">
         <f>Q29+R20</f>
         <v>121.24544965307217</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="4">
         <f>R29+S20</f>
         <v>288.99437578584565</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="4">
         <f t="shared" ref="T29" si="84">S29+T20</f>
         <v>316.23317090511608</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="4">
         <f t="shared" ref="U29" si="85">T29+U20</f>
         <v>350.46083086999101</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="4">
         <f t="shared" ref="V29" si="86">U29+V20</f>
         <v>392.14191506012082</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="4">
         <f t="shared" ref="W29" si="87">V29+W20</f>
         <v>441.76664305971877</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="4">
         <f t="shared" ref="X29" si="88">W29+X20</f>
         <v>499.85223286010785</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="4">
         <f t="shared" ref="Y29" si="89">X29+Y20</f>
         <v>566.94430740624011</v>
       </c>
     </row>
     <row r="31" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
         <f>81+873.3</f>
         <v>954.3</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="4">
         <f>100.5+938.9</f>
         <v>1039.4000000000001</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="4">
         <f>J31</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4">
         <f>118.4+0.5+8.1</f>
         <v>127</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="4">
         <f>0.6+7.3+292</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="4">
         <f>J33</f>
         <v>0</v>
       </c>
@@ -3491,84 +3513,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
-        <v>79</v>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
-        <v>85</v>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="23" t="s">
-        <v>78</v>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="23"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3594,45 +3616,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
@@ -3666,63 +3688,63 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
-        <v>80</v>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
-        <v>80</v>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3747,63 +3769,63 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
-        <v>78</v>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3828,53 +3850,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
-        <v>78</v>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
-        <v>80</v>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99192C15-B34E-49CC-A643-9B187679D971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02ACC4-2024-42D3-A8A6-2E3E95427431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>Price</t>
   </si>
@@ -398,58 +398,34 @@
     <t>Target Binding Moieties as independent components of protein degrader compositions</t>
   </si>
   <si>
-    <t>PROTAC</t>
-  </si>
-  <si>
-    <t>proteolysis - protein degrader</t>
-  </si>
-  <si>
-    <t>PROTAC works with two distinct binding domains linked by a chemical linker</t>
-  </si>
-  <si>
-    <t>Domain 1</t>
-  </si>
-  <si>
-    <t>Domain 2</t>
-  </si>
-  <si>
-    <t>target POI</t>
-  </si>
-  <si>
-    <t>binds to E3 ubiquitin ligase</t>
-  </si>
-  <si>
-    <t>PROTAC Molecule binds the POI &amp; E3 Ligase together forming a ternary complex</t>
-  </si>
-  <si>
-    <t>E3 Ligase adds ubiquitin tags to the POI</t>
-  </si>
-  <si>
-    <t>How PROTAC works</t>
-  </si>
-  <si>
-    <t>The ubiquitiated POI is then recognized by the proteasome which degrades it into smaller peptides</t>
-  </si>
-  <si>
-    <t>After ubiquitination the PROTAC molecule is released and can be reused to target and degrade more copies of the POI, making it a catalytic process</t>
-  </si>
-  <si>
     <t>Ubiquitin Ligase Binding Moieties as components of protein degrader compositions</t>
   </si>
   <si>
-    <t>target chimera - chimera meaning having two parts</t>
-  </si>
-  <si>
     <t>NVS milestones &amp; royalties</t>
+  </si>
+  <si>
+    <t>BMS-986365 for mCRPC</t>
+  </si>
+  <si>
+    <t>mCRPC</t>
+  </si>
+  <si>
+    <t>Competition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -603,45 +579,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1112,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BB678-3E4D-4596-B817-7F0BBEA796CF}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1274,14 +1251,14 @@
       <c r="C8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>57</v>
+      <c r="D8" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>61</v>
@@ -1329,7 +1306,7 @@
         <v>93</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1360,64 +1337,8 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="B24" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1434,11 +1355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3490E-060A-4BBA-A7F8-7C82CDA69E04}">
   <dimension ref="A1:DI33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB24" sqref="AB24"/>
+      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1722,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="S7" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -1956,7 +1877,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="12"/>
-        <v>110.3232</v>
+        <v>360.32319999999999</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="12"/>
@@ -1964,7 +1885,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" si="12"/>
-        <v>271.72401713971203</v>
+        <v>121.724017139712</v>
       </c>
       <c r="T12" s="6">
         <f t="shared" si="12"/>
@@ -2067,44 +1988,44 @@
         <v>106.4</v>
       </c>
       <c r="P14" s="4">
-        <f>O14</f>
-        <v>106.4</v>
+        <f>O14*1.04</f>
+        <v>110.65600000000001</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" ref="Q14:T14" si="16">P14</f>
-        <v>106.4</v>
+        <f t="shared" ref="Q14:Y14" si="16">P14*1.04</f>
+        <v>115.08224000000001</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="16"/>
-        <v>106.4</v>
+        <v>119.68552960000002</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="16"/>
-        <v>106.4</v>
+        <v>124.47295078400003</v>
       </c>
       <c r="T14" s="4">
         <f t="shared" si="16"/>
-        <v>106.4</v>
+        <v>129.45186881536003</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" ref="U14" si="17">T14</f>
-        <v>106.4</v>
+        <f t="shared" si="16"/>
+        <v>134.62994356797444</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" ref="V14" si="18">U14</f>
-        <v>106.4</v>
+        <f t="shared" si="16"/>
+        <v>140.01514131069342</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" ref="W14" si="19">V14</f>
-        <v>106.4</v>
+        <f t="shared" si="16"/>
+        <v>145.61574696312115</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" ref="X14" si="20">W14</f>
-        <v>106.4</v>
+        <f t="shared" si="16"/>
+        <v>151.44037684164601</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" ref="Y14" si="21">X14</f>
-        <v>106.4</v>
+        <f t="shared" si="16"/>
+        <v>157.49799191531187</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2120,72 +2041,72 @@
         <v>117.4</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" ref="H15:N15" si="22">SUM(H13:H14)</f>
+        <f t="shared" ref="H15:N15" si="17">SUM(H13:H14)</f>
         <v>117.4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>117.4</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>117.4</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>394.6</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>480</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>513.6</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" ref="O15" si="23">SUM(O13:O14)</f>
+        <f t="shared" ref="O15" si="18">SUM(O13:O14)</f>
         <v>469.6</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15" si="24">SUM(P13:P14)</f>
-        <v>469.6</v>
+        <f t="shared" ref="P15" si="19">SUM(P13:P14)</f>
+        <v>473.85599999999999</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" ref="Q15" si="25">SUM(Q13:Q14)</f>
-        <v>106.4</v>
+        <f t="shared" ref="Q15" si="20">SUM(Q13:Q14)</f>
+        <v>115.08224000000001</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" ref="R15" si="26">SUM(R13:R14)</f>
-        <v>106.4</v>
+        <f t="shared" ref="R15" si="21">SUM(R13:R14)</f>
+        <v>119.68552960000002</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15" si="27">SUM(S13:S14)</f>
-        <v>106.4</v>
+        <f t="shared" ref="S15" si="22">SUM(S13:S14)</f>
+        <v>124.47295078400003</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" ref="T15:Y15" si="28">SUM(T13:T14)</f>
-        <v>106.4</v>
+        <f t="shared" ref="T15:Y15" si="23">SUM(T13:T14)</f>
+        <v>129.45186881536003</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="28"/>
-        <v>106.4</v>
+        <f t="shared" si="23"/>
+        <v>134.62994356797444</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="28"/>
-        <v>106.4</v>
+        <f t="shared" si="23"/>
+        <v>140.01514131069342</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="28"/>
-        <v>106.4</v>
+        <f t="shared" si="23"/>
+        <v>145.61574696312115</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="28"/>
-        <v>106.4</v>
+        <f t="shared" si="23"/>
+        <v>151.44037684164601</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="28"/>
-        <v>106.4</v>
+        <f t="shared" si="23"/>
+        <v>157.49799191531187</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2201,72 +2122,72 @@
         <v>71.400000000000006</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" ref="H16:N16" si="29">H12-H15</f>
+        <f t="shared" ref="H16:N16" si="24">H12-H15</f>
         <v>-92.4</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>-92.15</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>-91.897500000000008</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>-263.20000000000005</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>-401.5</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>-250.20000000000005</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" ref="O16" si="30">O12-O15</f>
+        <f t="shared" ref="O16" si="25">O12-O15</f>
         <v>-469.6</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16" si="31">P12-P15</f>
-        <v>-469.6</v>
+        <f t="shared" ref="P16" si="26">P12-P15</f>
+        <v>-473.85599999999999</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" ref="Q16" si="32">Q12-Q15</f>
-        <v>3.9231999999999942</v>
+        <f t="shared" ref="Q16" si="27">Q12-Q15</f>
+        <v>245.24095999999997</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" ref="R16" si="33">R12-R15</f>
-        <v>9.4834892800000006</v>
+        <f t="shared" ref="R16" si="28">R12-R15</f>
+        <v>-3.8020403200000175</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" ref="S16" si="34">S12-S15</f>
-        <v>165.32401713971203</v>
+        <f t="shared" ref="S16" si="29">S12-S15</f>
+        <v>-2.7489336442880301</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:Y16" si="35">T12-T15</f>
-        <v>21.458907603553499</v>
+        <f t="shared" ref="T16:Y16" si="30">T12-T15</f>
+        <v>-1.5929612118065251</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="35"/>
-        <v>27.902996546772584</v>
+        <f t="shared" si="30"/>
+        <v>-0.32694702120184616</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="35"/>
-        <v>34.67186757272998</v>
+        <f t="shared" si="30"/>
+        <v>1.0567262620365625</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="35"/>
-        <v>41.781889698395531</v>
+        <f t="shared" si="30"/>
+        <v>2.5661427352743829</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="35"/>
-        <v>49.250256939194713</v>
+        <f t="shared" si="30"/>
+        <v>4.2098800975487052</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="35"/>
-        <v>57.095029888930128</v>
+        <f t="shared" si="30"/>
+        <v>5.9970379736182622</v>
       </c>
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.2">
@@ -2305,44 +2226,44 @@
         <v>22.784590912499997</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17:Y17" si="36">O29*$AB$23</f>
+        <f t="shared" ref="P17:Y17" si="31">O29*$AB$23</f>
         <v>11.238741818249999</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="36"/>
-        <v>2.0715166546149977</v>
+        <f t="shared" si="31"/>
+        <v>1.9863966546149983</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="36"/>
-        <v>2.1914109877072976</v>
+        <f t="shared" si="31"/>
+        <v>6.9309437877072968</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="36"/>
-        <v>2.4249089930614436</v>
+        <f t="shared" si="31"/>
+        <v>6.9935218570614426</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="36"/>
-        <v>5.7798875157169132</v>
+        <f t="shared" si="31"/>
+        <v>7.0784136213169111</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="36"/>
-        <v>6.3246634181023218</v>
+        <f t="shared" si="31"/>
+        <v>7.188122669507119</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="36"/>
-        <v>7.0092166173998205</v>
+        <f t="shared" si="31"/>
+        <v>7.3253461824732247</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="36"/>
-        <v>7.8428383012024163</v>
+        <f t="shared" si="31"/>
+        <v>7.4929876313634205</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="36"/>
-        <v>8.8353328611943756</v>
+        <f t="shared" si="31"/>
+        <v>7.6941702386961763</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="36"/>
-        <v>9.9970446572021565</v>
+        <f t="shared" si="31"/>
+        <v>7.9322512454210745</v>
       </c>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.2">
@@ -2358,72 +2279,72 @@
         <v>83.100000000000009</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18:N18" si="37">H16+H17</f>
+        <f t="shared" ref="H18:N18" si="32">H16+H17</f>
         <v>-88.263500000000008</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>-88.454817500000004</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>-88.644591587500003</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>-251.20000000000005</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>-362.7</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>-195.40000000000003</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18" si="38">O16+O17</f>
+        <f t="shared" ref="O18" si="33">O16+O17</f>
         <v>-446.81540908750003</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="39">P16+P17</f>
-        <v>-458.36125818175003</v>
+        <f t="shared" ref="P18" si="34">P16+P17</f>
+        <v>-462.61725818175</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="40">Q16+Q17</f>
-        <v>5.9947166546149919</v>
+        <f t="shared" ref="Q18" si="35">Q16+Q17</f>
+        <v>247.22735665461497</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18" si="41">R16+R17</f>
-        <v>11.674900267707297</v>
+        <f t="shared" ref="R18" si="36">R16+R17</f>
+        <v>3.1289034677072793</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18" si="42">S16+S17</f>
-        <v>167.74892613277348</v>
+        <f t="shared" ref="S18" si="37">S16+S17</f>
+        <v>4.2445882127734125</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:Y18" si="43">T16+T17</f>
-        <v>27.238795119270414</v>
+        <f t="shared" ref="T18:Y18" si="38">T16+T17</f>
+        <v>5.485452409510386</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="43"/>
-        <v>34.227659964874903</v>
+        <f t="shared" si="38"/>
+        <v>6.8611756483052728</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="43"/>
-        <v>41.681084190129802</v>
+        <f t="shared" si="38"/>
+        <v>8.3820724445097881</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="43"/>
-        <v>49.624727999597951</v>
+        <f t="shared" si="38"/>
+        <v>10.059130366637802</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="43"/>
-        <v>58.085589800389087</v>
+        <f t="shared" si="38"/>
+        <v>11.904050336244882</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="43"/>
-        <v>67.092074546132281</v>
+        <f t="shared" si="38"/>
+        <v>13.929289219039337</v>
       </c>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.2">
@@ -2441,11 +2362,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ref="I19:J19" si="44">I18*I25</f>
+        <f t="shared" ref="I19:J19" si="39">I18*I25</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
@@ -2466,39 +2387,39 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" ref="Q19:S19" si="45">Q18*Q25</f>
+        <f t="shared" ref="Q19:S19" si="40">Q18*Q25</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19:Y19" si="46">T18*T25</f>
+        <f t="shared" ref="T19:Y19" si="41">T18*T25</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -2516,424 +2437,424 @@
         <v>82.9</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:N20" si="47">H18-H19</f>
+        <f t="shared" ref="H20:N20" si="42">H18-H19</f>
         <v>-88.263500000000008</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>-88.454817500000004</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>-88.644591587500003</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>-272.10000000000002</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>-363.59999999999997</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>-196.00000000000003</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="48">O18-O19</f>
+        <f t="shared" ref="O20" si="43">O18-O19</f>
         <v>-447.01540908750002</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20" si="49">P18-P19</f>
-        <v>-458.36125818175003</v>
+        <f t="shared" ref="P20" si="44">P18-P19</f>
+        <v>-462.61725818175</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ref="Q20" si="50">Q18-Q19</f>
-        <v>5.9947166546149919</v>
+        <f t="shared" ref="Q20" si="45">Q18-Q19</f>
+        <v>247.22735665461497</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20" si="51">R18-R19</f>
-        <v>11.674900267707297</v>
+        <f t="shared" ref="R20" si="46">R18-R19</f>
+        <v>3.1289034677072793</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ref="S20" si="52">S18-S19</f>
-        <v>167.74892613277348</v>
+        <f t="shared" ref="S20" si="47">S18-S19</f>
+        <v>4.2445882127734125</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" ref="T20:Y20" si="53">T18-T19</f>
-        <v>27.238795119270414</v>
+        <f t="shared" ref="T20:Y20" si="48">T18-T19</f>
+        <v>5.485452409510386</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="53"/>
-        <v>34.227659964874903</v>
+        <f t="shared" si="48"/>
+        <v>6.8611756483052728</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="53"/>
-        <v>41.681084190129802</v>
+        <f t="shared" si="48"/>
+        <v>8.3820724445097881</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="53"/>
-        <v>49.624727999597951</v>
+        <f t="shared" si="48"/>
+        <v>10.059130366637802</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" si="53"/>
-        <v>58.085589800389087</v>
+        <f t="shared" si="48"/>
+        <v>11.904050336244882</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="53"/>
-        <v>67.092074546132281</v>
+        <f t="shared" si="48"/>
+        <v>13.929289219039337</v>
       </c>
       <c r="Z20" s="6">
-        <f t="shared" ref="Z20:BE20" si="54">Y20*(1+$AB$24)</f>
-        <v>65.750233055209634</v>
+        <f t="shared" ref="Z20:BE20" si="49">Y20*(1+$AB$24)</f>
+        <v>13.789996326848943</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="54"/>
-        <v>64.435228394105437</v>
+        <f t="shared" si="49"/>
+        <v>13.652096363580453</v>
       </c>
       <c r="AB20" s="6">
-        <f t="shared" si="54"/>
-        <v>63.14652382622333</v>
+        <f t="shared" si="49"/>
+        <v>13.515575399944648</v>
       </c>
       <c r="AC20" s="6">
-        <f t="shared" si="54"/>
-        <v>61.883593349698863</v>
+        <f t="shared" si="49"/>
+        <v>13.380419645945201</v>
       </c>
       <c r="AD20" s="6">
-        <f t="shared" si="54"/>
-        <v>60.645921482704885</v>
+        <f t="shared" si="49"/>
+        <v>13.246615449485748</v>
       </c>
       <c r="AE20" s="6">
-        <f t="shared" si="54"/>
-        <v>59.43300305305079</v>
+        <f t="shared" si="49"/>
+        <v>13.114149294990892</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="54"/>
-        <v>58.244342991989775</v>
+        <f t="shared" si="49"/>
+        <v>12.983007802040982</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" si="54"/>
-        <v>57.079456132149978</v>
+        <f t="shared" si="49"/>
+        <v>12.853177724020572</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="54"/>
-        <v>55.937867009506981</v>
+        <f t="shared" si="49"/>
+        <v>12.724645946780367</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="54"/>
-        <v>54.819109669316838</v>
+        <f t="shared" si="49"/>
+        <v>12.597399487312563</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" si="54"/>
-        <v>53.722727475930498</v>
+        <f t="shared" si="49"/>
+        <v>12.471425492439437</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="54"/>
-        <v>52.648272926411884</v>
+        <f t="shared" si="49"/>
+        <v>12.346711237515041</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="54"/>
-        <v>51.595307467883643</v>
+        <f t="shared" si="49"/>
+        <v>12.223244125139891</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" si="54"/>
-        <v>50.563401318525969</v>
+        <f t="shared" si="49"/>
+        <v>12.101011683888492</v>
       </c>
       <c r="AN20" s="6">
-        <f t="shared" si="54"/>
-        <v>49.552133292155446</v>
+        <f t="shared" si="49"/>
+        <v>11.980001567049607</v>
       </c>
       <c r="AO20" s="6">
-        <f t="shared" si="54"/>
-        <v>48.561090626312335</v>
+        <f t="shared" si="49"/>
+        <v>11.860201551379111</v>
       </c>
       <c r="AP20" s="6">
-        <f t="shared" si="54"/>
-        <v>47.58986881378609</v>
+        <f t="shared" si="49"/>
+        <v>11.741599535865321</v>
       </c>
       <c r="AQ20" s="6">
-        <f t="shared" si="54"/>
-        <v>46.638071437510369</v>
+        <f t="shared" si="49"/>
+        <v>11.624183540506667</v>
       </c>
       <c r="AR20" s="6">
-        <f t="shared" si="54"/>
-        <v>45.705310008760158</v>
+        <f t="shared" si="49"/>
+        <v>11.507941705101601</v>
       </c>
       <c r="AS20" s="6">
-        <f t="shared" si="54"/>
-        <v>44.791203808584953</v>
+        <f t="shared" si="49"/>
+        <v>11.392862288050585</v>
       </c>
       <c r="AT20" s="6">
-        <f t="shared" si="54"/>
-        <v>43.895379732413254</v>
+        <f t="shared" si="49"/>
+        <v>11.278933665170079</v>
       </c>
       <c r="AU20" s="6">
-        <f t="shared" si="54"/>
-        <v>43.01747213776499</v>
+        <f t="shared" si="49"/>
+        <v>11.166144328518378</v>
       </c>
       <c r="AV20" s="6">
-        <f t="shared" si="54"/>
-        <v>42.15712269500969</v>
+        <f t="shared" si="49"/>
+        <v>11.054482885233194</v>
       </c>
       <c r="AW20" s="6">
-        <f t="shared" si="54"/>
-        <v>41.313980241109498</v>
+        <f t="shared" si="49"/>
+        <v>10.943938056380862</v>
       </c>
       <c r="AX20" s="6">
-        <f t="shared" si="54"/>
-        <v>40.487700636287308</v>
+        <f t="shared" si="49"/>
+        <v>10.834498675817054</v>
       </c>
       <c r="AY20" s="6">
-        <f t="shared" si="54"/>
-        <v>39.67794662356156</v>
+        <f t="shared" si="49"/>
+        <v>10.726153689058883</v>
       </c>
       <c r="AZ20" s="6">
-        <f t="shared" si="54"/>
-        <v>38.884387691090325</v>
+        <f t="shared" si="49"/>
+        <v>10.618892152168295</v>
       </c>
       <c r="BA20" s="6">
-        <f t="shared" si="54"/>
-        <v>38.106699937268516</v>
+        <f t="shared" si="49"/>
+        <v>10.512703230646611</v>
       </c>
       <c r="BB20" s="6">
-        <f t="shared" si="54"/>
-        <v>37.344565938523147</v>
+        <f t="shared" si="49"/>
+        <v>10.407576198340145</v>
       </c>
       <c r="BC20" s="6">
-        <f t="shared" si="54"/>
-        <v>36.597674619752681</v>
+        <f t="shared" si="49"/>
+        <v>10.303500436356744</v>
       </c>
       <c r="BD20" s="6">
-        <f t="shared" si="54"/>
-        <v>35.865721127357624</v>
+        <f t="shared" si="49"/>
+        <v>10.200465431993177</v>
       </c>
       <c r="BE20" s="6">
-        <f t="shared" si="54"/>
-        <v>35.148406704810469</v>
+        <f t="shared" si="49"/>
+        <v>10.098460777673244</v>
       </c>
       <c r="BF20" s="6">
-        <f t="shared" ref="BF20:CK20" si="55">BE20*(1+$AB$24)</f>
-        <v>34.445438570714259</v>
+        <f t="shared" ref="BF20:CK20" si="50">BE20*(1+$AB$24)</f>
+        <v>9.9974761698965118</v>
       </c>
       <c r="BG20" s="6">
-        <f t="shared" si="55"/>
-        <v>33.756529799299976</v>
+        <f t="shared" si="50"/>
+        <v>9.897501408197547</v>
       </c>
       <c r="BH20" s="6">
-        <f t="shared" si="55"/>
-        <v>33.081399203313978</v>
+        <f t="shared" si="50"/>
+        <v>9.7985263941155711</v>
       </c>
       <c r="BI20" s="6">
-        <f t="shared" si="55"/>
-        <v>32.4197712192477</v>
+        <f t="shared" si="50"/>
+        <v>9.7005411301744147</v>
       </c>
       <c r="BJ20" s="6">
-        <f t="shared" si="55"/>
-        <v>31.771375794862745</v>
+        <f t="shared" si="50"/>
+        <v>9.6035357188726707</v>
       </c>
       <c r="BK20" s="6">
-        <f t="shared" si="55"/>
-        <v>31.13594827896549</v>
+        <f t="shared" si="50"/>
+        <v>9.5075003616839435</v>
       </c>
       <c r="BL20" s="6">
-        <f t="shared" si="55"/>
-        <v>30.51322931338618</v>
+        <f t="shared" si="50"/>
+        <v>9.4124253580671038</v>
       </c>
       <c r="BM20" s="6">
-        <f t="shared" si="55"/>
-        <v>29.902964727118455</v>
+        <f t="shared" si="50"/>
+        <v>9.3183011044864319</v>
       </c>
       <c r="BN20" s="6">
-        <f t="shared" si="55"/>
-        <v>29.304905432576085</v>
+        <f t="shared" si="50"/>
+        <v>9.2251180934415675</v>
       </c>
       <c r="BO20" s="6">
-        <f t="shared" si="55"/>
-        <v>28.718807323924562</v>
+        <f t="shared" si="50"/>
+        <v>9.1328669125071524</v>
       </c>
       <c r="BP20" s="6">
-        <f t="shared" si="55"/>
-        <v>28.144431177446069</v>
+        <f t="shared" si="50"/>
+        <v>9.0415382433820817</v>
       </c>
       <c r="BQ20" s="6">
-        <f t="shared" si="55"/>
-        <v>27.581542553897147</v>
+        <f t="shared" si="50"/>
+        <v>8.95112286094826</v>
       </c>
       <c r="BR20" s="6">
-        <f t="shared" si="55"/>
-        <v>27.029911702819206</v>
+        <f t="shared" si="50"/>
+        <v>8.8616116323387768</v>
       </c>
       <c r="BS20" s="6">
-        <f t="shared" si="55"/>
-        <v>26.48931346876282</v>
+        <f t="shared" si="50"/>
+        <v>8.7729955160153885</v>
       </c>
       <c r="BT20" s="6">
-        <f t="shared" si="55"/>
-        <v>25.959527199387562</v>
+        <f t="shared" si="50"/>
+        <v>8.6852655608552354</v>
       </c>
       <c r="BU20" s="6">
-        <f t="shared" si="55"/>
-        <v>25.440336655399811</v>
+        <f t="shared" si="50"/>
+        <v>8.5984129052466827</v>
       </c>
       <c r="BV20" s="6">
-        <f t="shared" si="55"/>
-        <v>24.931529922291816</v>
+        <f t="shared" si="50"/>
+        <v>8.5124287761942163</v>
       </c>
       <c r="BW20" s="6">
-        <f t="shared" si="55"/>
-        <v>24.43289932384598</v>
+        <f t="shared" si="50"/>
+        <v>8.4273044884322736</v>
       </c>
       <c r="BX20" s="6">
-        <f t="shared" si="55"/>
-        <v>23.944241337369061</v>
+        <f t="shared" si="50"/>
+        <v>8.3430314435479502</v>
       </c>
       <c r="BY20" s="6">
-        <f t="shared" si="55"/>
-        <v>23.465356510621678</v>
+        <f t="shared" si="50"/>
+        <v>8.25960112911247</v>
       </c>
       <c r="BZ20" s="6">
-        <f t="shared" si="55"/>
-        <v>22.996049380409243</v>
+        <f t="shared" si="50"/>
+        <v>8.177005117821345</v>
       </c>
       <c r="CA20" s="6">
-        <f t="shared" si="55"/>
-        <v>22.536128392801057</v>
+        <f t="shared" si="50"/>
+        <v>8.0952350666431308</v>
       </c>
       <c r="CB20" s="6">
-        <f t="shared" si="55"/>
-        <v>22.085405824945035</v>
+        <f t="shared" si="50"/>
+        <v>8.0142827159766998</v>
       </c>
       <c r="CC20" s="6">
-        <f t="shared" si="55"/>
-        <v>21.643697708446133</v>
+        <f t="shared" si="50"/>
+        <v>7.934139888816933</v>
       </c>
       <c r="CD20" s="6">
-        <f t="shared" si="55"/>
-        <v>21.210823754277211</v>
+        <f t="shared" si="50"/>
+        <v>7.8547984899287639</v>
       </c>
       <c r="CE20" s="6">
-        <f t="shared" si="55"/>
-        <v>20.786607279191667</v>
+        <f t="shared" si="50"/>
+        <v>7.7762505050294761</v>
       </c>
       <c r="CF20" s="6">
-        <f t="shared" si="55"/>
-        <v>20.370875133607832</v>
+        <f t="shared" si="50"/>
+        <v>7.6984879999791813</v>
       </c>
       <c r="CG20" s="6">
-        <f t="shared" si="55"/>
-        <v>19.963457630935675</v>
+        <f t="shared" si="50"/>
+        <v>7.6215031199793897</v>
       </c>
       <c r="CH20" s="6">
-        <f t="shared" si="55"/>
-        <v>19.564188478316961</v>
+        <f t="shared" si="50"/>
+        <v>7.5452880887795954</v>
       </c>
       <c r="CI20" s="6">
-        <f t="shared" si="55"/>
-        <v>19.172904708750622</v>
+        <f t="shared" si="50"/>
+        <v>7.4698352078917996</v>
       </c>
       <c r="CJ20" s="6">
-        <f t="shared" si="55"/>
-        <v>18.78944661457561</v>
+        <f t="shared" si="50"/>
+        <v>7.3951368558128818</v>
       </c>
       <c r="CK20" s="6">
-        <f t="shared" si="55"/>
-        <v>18.413657682284096</v>
+        <f t="shared" si="50"/>
+        <v>7.3211854872547528</v>
       </c>
       <c r="CL20" s="6">
-        <f t="shared" ref="CL20:DI20" si="56">CK20*(1+$AB$24)</f>
-        <v>18.045384528638415</v>
+        <f t="shared" ref="CL20:DI20" si="51">CK20*(1+$AB$24)</f>
+        <v>7.2479736323822053</v>
       </c>
       <c r="CM20" s="6">
-        <f t="shared" si="56"/>
-        <v>17.684476838065645</v>
+        <f t="shared" si="51"/>
+        <v>7.1754938960583834</v>
       </c>
       <c r="CN20" s="6">
-        <f t="shared" si="56"/>
-        <v>17.330787301304333</v>
+        <f t="shared" si="51"/>
+        <v>7.1037389570977991</v>
       </c>
       <c r="CO20" s="6">
-        <f t="shared" si="56"/>
-        <v>16.984171555278248</v>
+        <f t="shared" si="51"/>
+        <v>7.0327015675268214</v>
       </c>
       <c r="CP20" s="6">
-        <f t="shared" si="56"/>
-        <v>16.644488124172682</v>
+        <f t="shared" si="51"/>
+        <v>6.9623745518515534</v>
       </c>
       <c r="CQ20" s="6">
-        <f t="shared" si="56"/>
-        <v>16.311598361689228</v>
+        <f t="shared" si="51"/>
+        <v>6.892750806333038</v>
       </c>
       <c r="CR20" s="6">
-        <f t="shared" si="56"/>
-        <v>15.985366394455443</v>
+        <f t="shared" si="51"/>
+        <v>6.8238232982697076</v>
       </c>
       <c r="CS20" s="6">
-        <f t="shared" si="56"/>
-        <v>15.665659066566334</v>
+        <f t="shared" si="51"/>
+        <v>6.7555850652870104</v>
       </c>
       <c r="CT20" s="6">
-        <f t="shared" si="56"/>
-        <v>15.352345885235007</v>
+        <f t="shared" si="51"/>
+        <v>6.68802921463414</v>
       </c>
       <c r="CU20" s="6">
-        <f t="shared" si="56"/>
-        <v>15.045298967530305</v>
+        <f t="shared" si="51"/>
+        <v>6.6211489224877988</v>
       </c>
       <c r="CV20" s="6">
-        <f t="shared" si="56"/>
-        <v>14.744392988179699</v>
+        <f t="shared" si="51"/>
+        <v>6.5549374332629204</v>
       </c>
       <c r="CW20" s="6">
-        <f t="shared" si="56"/>
-        <v>14.449505128416105</v>
+        <f t="shared" si="51"/>
+        <v>6.4893880589302908</v>
       </c>
       <c r="CX20" s="6">
-        <f t="shared" si="56"/>
-        <v>14.160515025847783</v>
+        <f t="shared" si="51"/>
+        <v>6.4244941783409875</v>
       </c>
       <c r="CY20" s="6">
-        <f t="shared" si="56"/>
-        <v>13.877304725330827</v>
+        <f t="shared" si="51"/>
+        <v>6.3602492365575776</v>
       </c>
       <c r="CZ20" s="6">
-        <f t="shared" si="56"/>
-        <v>13.59975863082421</v>
+        <f t="shared" si="51"/>
+        <v>6.2966467441920013</v>
       </c>
       <c r="DA20" s="6">
-        <f t="shared" si="56"/>
-        <v>13.327763458207725</v>
+        <f t="shared" si="51"/>
+        <v>6.2336802767500812</v>
       </c>
       <c r="DB20" s="6">
-        <f t="shared" si="56"/>
-        <v>13.061208189043571</v>
+        <f t="shared" si="51"/>
+        <v>6.1713434739825805</v>
       </c>
       <c r="DC20" s="6">
-        <f t="shared" si="56"/>
-        <v>12.799984025262699</v>
+        <f t="shared" si="51"/>
+        <v>6.1096300392427549</v>
       </c>
       <c r="DD20" s="6">
-        <f t="shared" si="56"/>
-        <v>12.543984344757444</v>
+        <f t="shared" si="51"/>
+        <v>6.0485337388503275</v>
       </c>
       <c r="DE20" s="6">
-        <f t="shared" si="56"/>
-        <v>12.293104657862294</v>
+        <f t="shared" si="51"/>
+        <v>5.9880484014618238</v>
       </c>
       <c r="DF20" s="6">
-        <f t="shared" si="56"/>
-        <v>12.047242564705048</v>
+        <f t="shared" si="51"/>
+        <v>5.9281679174472055</v>
       </c>
       <c r="DG20" s="6">
-        <f t="shared" si="56"/>
-        <v>11.806297713410947</v>
+        <f t="shared" si="51"/>
+        <v>5.8688862382727338</v>
       </c>
       <c r="DH20" s="6">
-        <f t="shared" si="56"/>
-        <v>11.570171759142728</v>
+        <f t="shared" si="51"/>
+        <v>5.8101973758900067</v>
       </c>
       <c r="DI20" s="6">
-        <f t="shared" si="56"/>
-        <v>11.338768323959872</v>
+        <f t="shared" si="51"/>
+        <v>5.7520954021311068</v>
       </c>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.2">
@@ -2951,11 +2872,11 @@
         <v>74.154000000000011</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ref="I21:J21" si="57">H21*1.02</f>
+        <f t="shared" ref="I21:J21" si="52">H21*1.02</f>
         <v>75.637080000000012</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>77.14982160000001</v>
       </c>
       <c r="L21" s="4">
@@ -2976,39 +2897,39 @@
         <v>79.464316248000017</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" ref="Q21:T21" si="58">P21*1.03</f>
+        <f t="shared" ref="Q21:T21" si="53">P21*1.03</f>
         <v>81.848245735440017</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>84.303693107503221</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>86.832803900728322</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>89.437788017750179</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" ref="U21" si="59">T21*1.03</f>
+        <f t="shared" ref="U21" si="54">T21*1.03</f>
         <v>92.120921658282683</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" ref="V21" si="60">U21*1.03</f>
+        <f t="shared" ref="V21" si="55">U21*1.03</f>
         <v>94.884549308031168</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" ref="W21" si="61">V21*1.03</f>
+        <f t="shared" ref="W21" si="56">V21*1.03</f>
         <v>97.731085787272107</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" ref="X21" si="62">W21*1.03</f>
+        <f t="shared" ref="X21" si="57">W21*1.03</f>
         <v>100.66301836089028</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" ref="Y21" si="63">X21*1.03</f>
+        <f t="shared" ref="Y21" si="58">X21*1.03</f>
         <v>103.68290891171699</v>
       </c>
     </row>
@@ -3025,73 +2946,73 @@
         <v>1.1403026134800551</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" ref="H22:N22" si="64">H20/H21</f>
+        <f t="shared" ref="H22:N22" si="59">H20/H21</f>
         <v>-1.1902729454918142</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>-1.1694636744305833</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>-1.1489928265433602</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>-5.1146616541353387</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>-6.551351351351351</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>-2.7260083449235051</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" ref="O22" si="65">O20/O21</f>
+        <f t="shared" ref="O22" si="60">O20/O21</f>
         <v>-5.7941210986222158</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" ref="P22" si="66">P20/P21</f>
-        <v>-5.768139459619225</v>
+        <f t="shared" ref="P22" si="61">P20/P21</f>
+        <v>-5.8216980907250093</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" ref="Q22" si="67">Q20/Q21</f>
-        <v>7.3241846550894371E-2</v>
+        <f t="shared" ref="Q22" si="62">Q20/Q21</f>
+        <v>3.0205577948943914</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" ref="R22" si="68">R20/R21</f>
-        <v>0.13848622566059571</v>
+        <f t="shared" ref="R22" si="63">R20/R21</f>
+        <v>3.7114666657809797E-2</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" ref="S22" si="69">S20/S21</f>
-        <v>1.9318612160048705</v>
+        <f t="shared" ref="S22" si="64">S20/S21</f>
+        <v>4.8882312007637596E-2</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" ref="T22:Y22" si="70">T20/T21</f>
-        <v>0.30455577807743295</v>
+        <f t="shared" ref="T22:Y22" si="65">T20/T21</f>
+        <v>6.133260371356368E-2</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="70"/>
-        <v>0.37155142771845534</v>
+        <f t="shared" si="65"/>
+        <v>7.4480102074493057E-2</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="70"/>
-        <v>0.43928210118611855</v>
+        <f t="shared" si="65"/>
+        <v>8.8339698145146972E-2</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="70"/>
-        <v>0.50776810264458117</v>
+        <f t="shared" si="65"/>
+        <v>0.10292662038497316</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" si="70"/>
-        <v>0.57703008260833721</v>
+        <f t="shared" si="65"/>
+        <v>0.11825644144274795</v>
       </c>
       <c r="Y22" s="7">
-        <f t="shared" si="70"/>
-        <v>0.64708904534361833</v>
+        <f t="shared" si="65"/>
+        <v>0.13434508507954504</v>
       </c>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.2">
@@ -3112,15 +3033,15 @@
         <v>6.4624505928853759</v>
       </c>
       <c r="H24" s="9" t="e">
-        <f t="shared" ref="H24:J24" si="71">H12/D12-1</f>
+        <f t="shared" ref="H24:J24" si="66">H12/D12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="9" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="9" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="9"/>
@@ -3146,42 +3067,42 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" ref="R24:S24" si="72">R12/Q12-1</f>
+        <f t="shared" ref="R24:S24" si="67">R12/Q12-1</f>
+        <v>-0.67839015284056092</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="67"/>
         <v>5.04E-2</v>
       </c>
-      <c r="S24" s="9">
-        <f t="shared" si="72"/>
-        <v>1.3448035507730269</v>
-      </c>
       <c r="T24" s="9">
-        <f t="shared" ref="T24" si="73">T12/S12-1</f>
-        <v>-0.52945304964407169</v>
+        <f t="shared" ref="T24" si="68">T12/S12-1</f>
+        <v>5.0400000000000222E-2</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" ref="U24" si="74">U12/T12-1</f>
+        <f t="shared" ref="U24" si="69">U12/T12-1</f>
         <v>5.04E-2</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" ref="V24" si="75">V12/U12-1</f>
+        <f t="shared" ref="V24" si="70">V12/U12-1</f>
         <v>5.0400000000000444E-2</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" ref="W24" si="76">W12/V12-1</f>
+        <f t="shared" ref="W24" si="71">W12/V12-1</f>
         <v>5.0399999999999778E-2</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" ref="X24" si="77">X12/W12-1</f>
+        <f t="shared" ref="X24" si="72">X12/W12-1</f>
         <v>5.0400000000000222E-2</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" ref="Y24" si="78">Y12/X12-1</f>
+        <f t="shared" ref="Y24" si="73">Y12/X12-1</f>
         <v>5.04E-2</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB24" s="8">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25" spans="1:113" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3190,7 +3111,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ref="G25" si="79">G19/G18</f>
+        <f t="shared" ref="G25" si="74">G19/G18</f>
         <v>2.4067388688327317E-3</v>
       </c>
       <c r="H25" s="10">
@@ -3208,15 +3129,15 @@
         <v>-8.3200636942675141E-2</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25:O25" si="80">M19/M18</f>
+        <f t="shared" ref="M25:O25" si="75">M19/M18</f>
         <v>-2.4813895781637717E-3</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>-3.070624360286591E-3</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>-4.4761213676235129E-4</v>
       </c>
       <c r="P25" s="10">
@@ -3253,7 +3174,7 @@
         <v>32</v>
       </c>
       <c r="AB25" s="8">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.2">
@@ -3262,7 +3183,7 @@
       </c>
       <c r="AB26" s="6">
         <f>NPV(AB25,P20:XFD20)+Main!K6-Main!K7</f>
-        <v>933.05187592761786</v>
+        <v>718.23943755565028</v>
       </c>
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.2">
@@ -3274,96 +3195,96 @@
         <v>-3.2924901185770747</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f t="shared" ref="D27:S27" si="81">D16/D12</f>
+        <f t="shared" ref="D27:S27" si="76">D16/D12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="10" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="10" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.37817796610169491</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>-3.6960000000000002</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>-3.6495049504950496</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>-3.6034702480149008</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>-2.0030441400304415</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>-5.1146496815286628</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>-0.94988610478359936</v>
       </c>
       <c r="O27" s="10" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="10" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="81"/>
-        <v>3.5560969950110169E-2</v>
+        <f t="shared" si="76"/>
+        <v>0.68061384890009857</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="81"/>
-        <v>8.1836414651666245E-2</v>
+        <f t="shared" si="76"/>
+        <v>-3.2809163269268249E-2</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="81"/>
-        <v>0.60842622187021311</v>
+        <f t="shared" si="76"/>
+        <v>-2.2583329969572626E-2</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" ref="T27:Y27" si="82">T16/T12</f>
-        <v>0.167832715027491</v>
+        <f t="shared" ref="T27:Y27" si="77">T16/T12</f>
+        <v>-1.2458742544131145E-2</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="82"/>
-        <v>0.20776153372761894</v>
+        <f t="shared" si="77"/>
+        <v>-2.4343985585458107E-3</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="82"/>
-        <v>0.24577449897907394</v>
+        <f t="shared" si="77"/>
+        <v>7.4906944964896307E-3</v>
       </c>
       <c r="W27" s="10">
-        <f t="shared" si="82"/>
-        <v>0.28196353672798335</v>
+        <f t="shared" si="77"/>
+        <v>1.7317519303454855E-2</v>
       </c>
       <c r="X27" s="10">
-        <f t="shared" si="82"/>
-        <v>0.31641616215535379</v>
+        <f t="shared" si="77"/>
+        <v>2.7047048815302042E-2</v>
       </c>
       <c r="Y27" s="10">
-        <f t="shared" si="82"/>
-        <v>0.34921569131316998</v>
+        <f t="shared" si="77"/>
+        <v>3.6680246351784102E-2</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AB27" s="7">
         <f>AB26/Main!K4</f>
-        <v>12.78304024526205</v>
+        <v>9.840056992415823</v>
       </c>
     </row>
     <row r="28" spans="1:113" x14ac:dyDescent="0.2">
@@ -3372,7 +3293,7 @@
       </c>
       <c r="AB28" s="10">
         <f>AB27/Main!K3-1</f>
-        <v>0.70440536603494008</v>
+        <v>0.3120075989887765</v>
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.2">
@@ -3388,11 +3309,11 @@
         <v>739.03649999999993</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29:J29" si="83">H29+I20</f>
+        <f t="shared" ref="I29:J29" si="78">H29+I20</f>
         <v>650.58168249999994</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>561.93709091249991</v>
       </c>
       <c r="L29" s="4">
@@ -3413,43 +3334,43 @@
       </c>
       <c r="P29" s="4">
         <f>O29+P20</f>
-        <v>103.57583273074988</v>
+        <v>99.319832730749908</v>
       </c>
       <c r="Q29" s="4">
         <f>P29+Q20</f>
-        <v>109.57054938536487</v>
+        <v>346.54718938536485</v>
       </c>
       <c r="R29" s="4">
         <f>Q29+R20</f>
-        <v>121.24544965307217</v>
+        <v>349.67609285307213</v>
       </c>
       <c r="S29" s="4">
         <f>R29+S20</f>
-        <v>288.99437578584565</v>
+        <v>353.92068106584554</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" ref="T29" si="84">S29+T20</f>
-        <v>316.23317090511608</v>
+        <f t="shared" ref="T29" si="79">S29+T20</f>
+        <v>359.40613347535594</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" ref="U29" si="85">T29+U20</f>
-        <v>350.46083086999101</v>
+        <f t="shared" ref="U29" si="80">T29+U20</f>
+        <v>366.26730912366122</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" ref="V29" si="86">U29+V20</f>
-        <v>392.14191506012082</v>
+        <f t="shared" ref="V29" si="81">U29+V20</f>
+        <v>374.64938156817101</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" ref="W29" si="87">V29+W20</f>
-        <v>441.76664305971877</v>
+        <f t="shared" ref="W29" si="82">V29+W20</f>
+        <v>384.70851193480883</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" ref="X29" si="88">W29+X20</f>
-        <v>499.85223286010785</v>
+        <f t="shared" ref="X29" si="83">W29+X20</f>
+        <v>396.61256227105372</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" ref="Y29" si="89">X29+Y20</f>
-        <v>566.94430740624011</v>
+        <f t="shared" ref="Y29" si="84">X29+Y20</f>
+        <v>410.54185149009305</v>
       </c>
     </row>
     <row r="31" spans="1:113" x14ac:dyDescent="0.2">
@@ -3499,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCE4260-003E-46D4-BF24-006BB4F4AA4C}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3551,61 +3472,70 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
+    <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4732B98F-D6A4-44CF-A013-F0CE37DCCC12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF830E-6BA7-46F9-ADF6-E5799868FC38}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3654,12 +3584,20 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f>B47</f>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>B48</f>
         <v>0</v>
       </c>
     </row>

--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02ACC4-2024-42D3-A8A6-2E3E95427431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFD5F3-CB34-43A0-8FDC-EA72DAD4C462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
+    <workbookView xWindow="2160" yWindow="435" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{8B933568-3C2B-49E2-8AFE-CD21F9455682}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1356,10 +1356,10 @@
   <dimension ref="A1:DI33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21:AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <v>0</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="12"/>
-        <v>360.32319999999999</v>
+        <v>110.3232</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="12"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="Q16" s="4">
         <f t="shared" ref="Q16" si="27">Q12-Q15</f>
-        <v>245.24095999999997</v>
+        <v>-4.759040000000013</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" ref="R16" si="28">R12-R15</f>
@@ -2235,35 +2235,35 @@
       </c>
       <c r="R17" s="4">
         <f t="shared" si="31"/>
-        <v>6.9309437877072968</v>
+        <v>1.9309437877072979</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="31"/>
-        <v>6.9935218570614426</v>
+        <v>1.8935218570614434</v>
       </c>
       <c r="T17" s="4">
         <f t="shared" si="31"/>
-        <v>7.0784136213169111</v>
+        <v>1.8764136213169116</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="31"/>
-        <v>7.188122669507119</v>
+        <v>1.8820826695071193</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="31"/>
-        <v>7.3253461824732247</v>
+        <v>1.9131853824732248</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" si="31"/>
-        <v>7.4929876313634205</v>
+        <v>1.9725836153634206</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" si="31"/>
-        <v>7.6941702386961763</v>
+        <v>2.0633581423761767</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="31"/>
-        <v>7.9322512454210745</v>
+        <v>2.1888229071746741</v>
       </c>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.2">
@@ -2312,39 +2312,39 @@
       </c>
       <c r="Q18" s="4">
         <f t="shared" ref="Q18" si="35">Q16+Q17</f>
-        <v>247.22735665461497</v>
+        <v>-2.7726433453850148</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" ref="R18" si="36">R16+R17</f>
-        <v>3.1289034677072793</v>
+        <v>-1.8710965322927195</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" ref="S18" si="37">S16+S17</f>
-        <v>4.2445882127734125</v>
+        <v>-0.85541178722658673</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" ref="T18:Y18" si="38">T16+T17</f>
-        <v>5.485452409510386</v>
+        <v>0.28345240951038653</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="38"/>
-        <v>6.8611756483052728</v>
+        <v>1.5551356483052732</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="38"/>
-        <v>8.3820724445097881</v>
+        <v>2.9699116445097875</v>
       </c>
       <c r="W18" s="4">
         <f t="shared" si="38"/>
-        <v>10.059130366637802</v>
+        <v>4.5387263506378037</v>
       </c>
       <c r="X18" s="4">
         <f t="shared" si="38"/>
-        <v>11.904050336244882</v>
+        <v>6.2732382399248818</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="38"/>
-        <v>13.929289219039337</v>
+        <v>8.1858608807929372</v>
       </c>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.2">
@@ -2470,391 +2470,391 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" ref="Q20" si="45">Q18-Q19</f>
-        <v>247.22735665461497</v>
+        <v>-2.7726433453850148</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20" si="46">R18-R19</f>
-        <v>3.1289034677072793</v>
+        <v>-1.8710965322927195</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" ref="S20" si="47">S18-S19</f>
-        <v>4.2445882127734125</v>
+        <v>-0.85541178722658673</v>
       </c>
       <c r="T20" s="6">
         <f t="shared" ref="T20:Y20" si="48">T18-T19</f>
-        <v>5.485452409510386</v>
+        <v>0.28345240951038653</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="48"/>
-        <v>6.8611756483052728</v>
+        <v>1.5551356483052732</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="48"/>
-        <v>8.3820724445097881</v>
+        <v>2.9699116445097875</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="48"/>
-        <v>10.059130366637802</v>
+        <v>4.5387263506378037</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="48"/>
-        <v>11.904050336244882</v>
+        <v>6.2732382399248818</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="48"/>
-        <v>13.929289219039337</v>
+        <v>8.1858608807929372</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" ref="Z20:BE20" si="49">Y20*(1+$AB$24)</f>
-        <v>13.789996326848943</v>
+        <v>8.1040022719850082</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="49"/>
-        <v>13.652096363580453</v>
+        <v>8.0229622492651576</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="49"/>
-        <v>13.515575399944648</v>
+        <v>7.9427326267725062</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="49"/>
-        <v>13.380419645945201</v>
+        <v>7.8633053005047815</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="49"/>
-        <v>13.246615449485748</v>
+        <v>7.7846722474997332</v>
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="49"/>
-        <v>13.114149294990892</v>
+        <v>7.7068255250247359</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="49"/>
-        <v>12.983007802040982</v>
+        <v>7.6297572697744886</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="49"/>
-        <v>12.853177724020572</v>
+        <v>7.553459697076744</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="49"/>
-        <v>12.724645946780367</v>
+        <v>7.4779251001059768</v>
       </c>
       <c r="AI20" s="6">
         <f t="shared" si="49"/>
-        <v>12.597399487312563</v>
+        <v>7.4031458491049174</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="49"/>
-        <v>12.471425492439437</v>
+        <v>7.329114390613868</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="49"/>
-        <v>12.346711237515041</v>
+        <v>7.2558232467077293</v>
       </c>
       <c r="AL20" s="6">
         <f t="shared" si="49"/>
-        <v>12.223244125139891</v>
+        <v>7.1832650142406518</v>
       </c>
       <c r="AM20" s="6">
         <f t="shared" si="49"/>
-        <v>12.101011683888492</v>
+        <v>7.1114323640982455</v>
       </c>
       <c r="AN20" s="6">
         <f t="shared" si="49"/>
-        <v>11.980001567049607</v>
+        <v>7.0403180404572634</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="49"/>
-        <v>11.860201551379111</v>
+        <v>6.9699148600526906</v>
       </c>
       <c r="AP20" s="6">
         <f t="shared" si="49"/>
-        <v>11.741599535865321</v>
+        <v>6.9002157114521632</v>
       </c>
       <c r="AQ20" s="6">
         <f t="shared" si="49"/>
-        <v>11.624183540506667</v>
+        <v>6.8312135543376415</v>
       </c>
       <c r="AR20" s="6">
         <f t="shared" si="49"/>
-        <v>11.507941705101601</v>
+        <v>6.7629014187942653</v>
       </c>
       <c r="AS20" s="6">
         <f t="shared" si="49"/>
-        <v>11.392862288050585</v>
+        <v>6.6952724046063228</v>
       </c>
       <c r="AT20" s="6">
         <f t="shared" si="49"/>
-        <v>11.278933665170079</v>
+        <v>6.6283196805602591</v>
       </c>
       <c r="AU20" s="6">
         <f t="shared" si="49"/>
-        <v>11.166144328518378</v>
+        <v>6.5620364837546568</v>
       </c>
       <c r="AV20" s="6">
         <f t="shared" si="49"/>
-        <v>11.054482885233194</v>
+        <v>6.4964161189171099</v>
       </c>
       <c r="AW20" s="6">
         <f t="shared" si="49"/>
-        <v>10.943938056380862</v>
+        <v>6.4314519577279388</v>
       </c>
       <c r="AX20" s="6">
         <f t="shared" si="49"/>
-        <v>10.834498675817054</v>
+        <v>6.3671374381506594</v>
       </c>
       <c r="AY20" s="6">
         <f t="shared" si="49"/>
-        <v>10.726153689058883</v>
+        <v>6.3034660637691529</v>
       </c>
       <c r="AZ20" s="6">
         <f t="shared" si="49"/>
-        <v>10.618892152168295</v>
+        <v>6.2404314031314616</v>
       </c>
       <c r="BA20" s="6">
         <f t="shared" si="49"/>
-        <v>10.512703230646611</v>
+        <v>6.178027089100147</v>
       </c>
       <c r="BB20" s="6">
         <f t="shared" si="49"/>
-        <v>10.407576198340145</v>
+        <v>6.1162468182091452</v>
       </c>
       <c r="BC20" s="6">
         <f t="shared" si="49"/>
-        <v>10.303500436356744</v>
+        <v>6.0550843500270535</v>
       </c>
       <c r="BD20" s="6">
         <f t="shared" si="49"/>
-        <v>10.200465431993177</v>
+        <v>5.9945335065267829</v>
       </c>
       <c r="BE20" s="6">
         <f t="shared" si="49"/>
-        <v>10.098460777673244</v>
+        <v>5.934588171461515</v>
       </c>
       <c r="BF20" s="6">
         <f t="shared" ref="BF20:CK20" si="50">BE20*(1+$AB$24)</f>
-        <v>9.9974761698965118</v>
+        <v>5.8752422897468994</v>
       </c>
       <c r="BG20" s="6">
         <f t="shared" si="50"/>
-        <v>9.897501408197547</v>
+        <v>5.8164898668494303</v>
       </c>
       <c r="BH20" s="6">
         <f t="shared" si="50"/>
-        <v>9.7985263941155711</v>
+        <v>5.7583249681809363</v>
       </c>
       <c r="BI20" s="6">
         <f t="shared" si="50"/>
-        <v>9.7005411301744147</v>
+        <v>5.7007417184991267</v>
       </c>
       <c r="BJ20" s="6">
         <f t="shared" si="50"/>
-        <v>9.6035357188726707</v>
+        <v>5.6437343013141357</v>
       </c>
       <c r="BK20" s="6">
         <f t="shared" si="50"/>
-        <v>9.5075003616839435</v>
+        <v>5.5872969583009944</v>
       </c>
       <c r="BL20" s="6">
         <f t="shared" si="50"/>
-        <v>9.4124253580671038</v>
+        <v>5.5314239887179841</v>
       </c>
       <c r="BM20" s="6">
         <f t="shared" si="50"/>
-        <v>9.3183011044864319</v>
+        <v>5.4761097488308046</v>
       </c>
       <c r="BN20" s="6">
         <f t="shared" si="50"/>
-        <v>9.2251180934415675</v>
+        <v>5.4213486513424964</v>
       </c>
       <c r="BO20" s="6">
         <f t="shared" si="50"/>
-        <v>9.1328669125071524</v>
+        <v>5.3671351648290715</v>
       </c>
       <c r="BP20" s="6">
         <f t="shared" si="50"/>
-        <v>9.0415382433820817</v>
+        <v>5.313463813180781</v>
       </c>
       <c r="BQ20" s="6">
         <f t="shared" si="50"/>
-        <v>8.95112286094826</v>
+        <v>5.2603291750489731</v>
       </c>
       <c r="BR20" s="6">
         <f t="shared" si="50"/>
-        <v>8.8616116323387768</v>
+        <v>5.2077258832984832</v>
       </c>
       <c r="BS20" s="6">
         <f t="shared" si="50"/>
-        <v>8.7729955160153885</v>
+        <v>5.1556486244654982</v>
       </c>
       <c r="BT20" s="6">
         <f t="shared" si="50"/>
-        <v>8.6852655608552354</v>
+        <v>5.1040921382208433</v>
       </c>
       <c r="BU20" s="6">
         <f t="shared" si="50"/>
-        <v>8.5984129052466827</v>
+        <v>5.053051216838635</v>
       </c>
       <c r="BV20" s="6">
         <f t="shared" si="50"/>
-        <v>8.5124287761942163</v>
+        <v>5.0025207046702489</v>
       </c>
       <c r="BW20" s="6">
         <f t="shared" si="50"/>
-        <v>8.4273044884322736</v>
+        <v>4.9524954976235467</v>
       </c>
       <c r="BX20" s="6">
         <f t="shared" si="50"/>
-        <v>8.3430314435479502</v>
+        <v>4.9029705426473109</v>
       </c>
       <c r="BY20" s="6">
         <f t="shared" si="50"/>
-        <v>8.25960112911247</v>
+        <v>4.8539408372208381</v>
       </c>
       <c r="BZ20" s="6">
         <f t="shared" si="50"/>
-        <v>8.177005117821345</v>
+        <v>4.8054014288486293</v>
       </c>
       <c r="CA20" s="6">
         <f t="shared" si="50"/>
-        <v>8.0952350666431308</v>
+        <v>4.7573474145601429</v>
       </c>
       <c r="CB20" s="6">
         <f t="shared" si="50"/>
-        <v>8.0142827159766998</v>
+        <v>4.7097739404145411</v>
       </c>
       <c r="CC20" s="6">
         <f t="shared" si="50"/>
-        <v>7.934139888816933</v>
+        <v>4.6626762010103953</v>
       </c>
       <c r="CD20" s="6">
         <f t="shared" si="50"/>
-        <v>7.8547984899287639</v>
+        <v>4.6160494390002915</v>
       </c>
       <c r="CE20" s="6">
         <f t="shared" si="50"/>
-        <v>7.7762505050294761</v>
+        <v>4.5698889446102884</v>
       </c>
       <c r="CF20" s="6">
         <f t="shared" si="50"/>
-        <v>7.6984879999791813</v>
+        <v>4.5241900551641852</v>
       </c>
       <c r="CG20" s="6">
         <f t="shared" si="50"/>
-        <v>7.6215031199793897</v>
+        <v>4.4789481546125431</v>
       </c>
       <c r="CH20" s="6">
         <f t="shared" si="50"/>
-        <v>7.5452880887795954</v>
+        <v>4.4341586730664178</v>
       </c>
       <c r="CI20" s="6">
         <f t="shared" si="50"/>
-        <v>7.4698352078917996</v>
+        <v>4.3898170863357535</v>
       </c>
       <c r="CJ20" s="6">
         <f t="shared" si="50"/>
-        <v>7.3951368558128818</v>
+        <v>4.3459189154723958</v>
       </c>
       <c r="CK20" s="6">
         <f t="shared" si="50"/>
-        <v>7.3211854872547528</v>
+        <v>4.3024597263176716</v>
       </c>
       <c r="CL20" s="6">
         <f t="shared" ref="CL20:DI20" si="51">CK20*(1+$AB$24)</f>
-        <v>7.2479736323822053</v>
+        <v>4.259435129054495</v>
       </c>
       <c r="CM20" s="6">
         <f t="shared" si="51"/>
-        <v>7.1754938960583834</v>
+        <v>4.2168407777639496</v>
       </c>
       <c r="CN20" s="6">
         <f t="shared" si="51"/>
-        <v>7.1037389570977991</v>
+        <v>4.1746723699863102</v>
       </c>
       <c r="CO20" s="6">
         <f t="shared" si="51"/>
-        <v>7.0327015675268214</v>
+        <v>4.1329256462864468</v>
       </c>
       <c r="CP20" s="6">
         <f t="shared" si="51"/>
-        <v>6.9623745518515534</v>
+        <v>4.0915963898235823</v>
       </c>
       <c r="CQ20" s="6">
         <f t="shared" si="51"/>
-        <v>6.892750806333038</v>
+        <v>4.0506804259253464</v>
       </c>
       <c r="CR20" s="6">
         <f t="shared" si="51"/>
-        <v>6.8238232982697076</v>
+        <v>4.0101736216660928</v>
       </c>
       <c r="CS20" s="6">
         <f t="shared" si="51"/>
-        <v>6.7555850652870104</v>
+        <v>3.9700718854494319</v>
       </c>
       <c r="CT20" s="6">
         <f t="shared" si="51"/>
-        <v>6.68802921463414</v>
+        <v>3.9303711665949375</v>
       </c>
       <c r="CU20" s="6">
         <f t="shared" si="51"/>
-        <v>6.6211489224877988</v>
+        <v>3.8910674549289879</v>
       </c>
       <c r="CV20" s="6">
         <f t="shared" si="51"/>
-        <v>6.5549374332629204</v>
+        <v>3.8521567803796981</v>
       </c>
       <c r="CW20" s="6">
         <f t="shared" si="51"/>
-        <v>6.4893880589302908</v>
+        <v>3.813635212575901</v>
       </c>
       <c r="CX20" s="6">
         <f t="shared" si="51"/>
-        <v>6.4244941783409875</v>
+        <v>3.775498860450142</v>
       </c>
       <c r="CY20" s="6">
         <f t="shared" si="51"/>
-        <v>6.3602492365575776</v>
+        <v>3.7377438718456406</v>
       </c>
       <c r="CZ20" s="6">
         <f t="shared" si="51"/>
-        <v>6.2966467441920013</v>
+        <v>3.7003664331271842</v>
       </c>
       <c r="DA20" s="6">
         <f t="shared" si="51"/>
-        <v>6.2336802767500812</v>
+        <v>3.6633627687959125</v>
       </c>
       <c r="DB20" s="6">
         <f t="shared" si="51"/>
-        <v>6.1713434739825805</v>
+        <v>3.6267291411079534</v>
       </c>
       <c r="DC20" s="6">
         <f t="shared" si="51"/>
-        <v>6.1096300392427549</v>
+        <v>3.5904618496968737</v>
       </c>
       <c r="DD20" s="6">
         <f t="shared" si="51"/>
-        <v>6.0485337388503275</v>
+        <v>3.554557231199905</v>
       </c>
       <c r="DE20" s="6">
         <f t="shared" si="51"/>
-        <v>5.9880484014618238</v>
+        <v>3.5190116588879059</v>
       </c>
       <c r="DF20" s="6">
         <f t="shared" si="51"/>
-        <v>5.9281679174472055</v>
+        <v>3.4838215422990269</v>
       </c>
       <c r="DG20" s="6">
         <f t="shared" si="51"/>
-        <v>5.8688862382727338</v>
+        <v>3.4489833268760366</v>
       </c>
       <c r="DH20" s="6">
         <f t="shared" si="51"/>
-        <v>5.8101973758900067</v>
+        <v>3.4144934936072762</v>
       </c>
       <c r="DI20" s="6">
         <f t="shared" si="51"/>
-        <v>5.7520954021311068</v>
+        <v>3.3803485586712032</v>
       </c>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.2">
@@ -2980,39 +2980,39 @@
       </c>
       <c r="Q22" s="7">
         <f t="shared" ref="Q22" si="62">Q20/Q21</f>
-        <v>3.0205577948943914</v>
+        <v>-3.3875415660673952E-2</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" ref="R22" si="63">R20/R21</f>
-        <v>3.7114666657809797E-2</v>
+        <v>-2.2194716071414759E-2</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" ref="S22" si="64">S20/S21</f>
-        <v>4.8882312007637596E-2</v>
+        <v>-9.851251471788669E-3</v>
       </c>
       <c r="T22" s="7">
         <f t="shared" ref="T22:Y22" si="65">T20/T21</f>
-        <v>6.133260371356368E-2</v>
+        <v>3.169269005782337E-3</v>
       </c>
       <c r="U22" s="7">
         <f t="shared" si="65"/>
-        <v>7.4480102074493057E-2</v>
+        <v>1.6881459936690175E-2</v>
       </c>
       <c r="V22" s="7">
         <f t="shared" si="65"/>
-        <v>8.8339698145146972E-2</v>
+        <v>3.1300266125186833E-2</v>
       </c>
       <c r="W22" s="7">
         <f t="shared" si="65"/>
-        <v>0.10292662038497316</v>
+        <v>4.6440969258410708E-2</v>
       </c>
       <c r="X22" s="7">
         <f t="shared" si="65"/>
-        <v>0.11825644144274795</v>
+        <v>6.2319194696055014E-2</v>
       </c>
       <c r="Y22" s="7">
         <f t="shared" si="65"/>
-        <v>0.13434508507954504</v>
+        <v>7.8950918398353984E-2</v>
       </c>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="R24" s="9">
         <f t="shared" ref="R24:S24" si="67">R12/Q12-1</f>
-        <v>-0.67839015284056092</v>
+        <v>5.04E-2</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="67"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="AB26" s="6">
         <f>NPV(AB25,P20:XFD20)+Main!K6-Main!K7</f>
-        <v>718.23943755565028</v>
+        <v>448.43557595053312</v>
       </c>
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="76"/>
-        <v>0.68061384890009857</v>
+        <v>-4.3137254901960902E-2</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="76"/>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="AB27" s="7">
         <f>AB26/Main!K4</f>
-        <v>9.840056992415823</v>
+        <v>6.1436777125429884</v>
       </c>
     </row>
     <row r="28" spans="1:113" x14ac:dyDescent="0.2">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="AB28" s="10">
         <f>AB27/Main!K3-1</f>
-        <v>0.3120075989887765</v>
+        <v>-0.18084297166093488</v>
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.2">
@@ -3338,39 +3338,39 @@
       </c>
       <c r="Q29" s="4">
         <f>P29+Q20</f>
-        <v>346.54718938536485</v>
+        <v>96.547189385364888</v>
       </c>
       <c r="R29" s="4">
         <f>Q29+R20</f>
-        <v>349.67609285307213</v>
+        <v>94.676092853072163</v>
       </c>
       <c r="S29" s="4">
         <f>R29+S20</f>
-        <v>353.92068106584554</v>
+        <v>93.820681065845577</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" ref="T29" si="79">S29+T20</f>
-        <v>359.40613347535594</v>
+        <v>94.104133475355965</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" ref="U29" si="80">T29+U20</f>
-        <v>366.26730912366122</v>
+        <v>95.659269123661232</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" ref="V29" si="81">U29+V20</f>
-        <v>374.64938156817101</v>
+        <v>98.629180768171025</v>
       </c>
       <c r="W29" s="4">
         <f t="shared" ref="W29" si="82">V29+W20</f>
-        <v>384.70851193480883</v>
+        <v>103.16790711880883</v>
       </c>
       <c r="X29" s="4">
         <f t="shared" ref="X29" si="83">W29+X20</f>
-        <v>396.61256227105372</v>
+        <v>109.44114535873371</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" ref="Y29" si="84">X29+Y20</f>
-        <v>410.54185149009305</v>
+        <v>117.62700623952665</v>
       </c>
     </row>
     <row r="31" spans="1:113" x14ac:dyDescent="0.2">
